--- a/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65744972409865</v>
+        <v>18.30049270635242</v>
       </c>
       <c r="C2">
-        <v>15.94699468948657</v>
+        <v>9.280927059261254</v>
       </c>
       <c r="D2">
-        <v>3.54224911674029</v>
+        <v>2.036773576431936</v>
       </c>
       <c r="E2">
-        <v>8.356567131603672</v>
+        <v>6.611644245459796</v>
       </c>
       <c r="F2">
-        <v>40.3879726001486</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>43.24420463898642</v>
       </c>
       <c r="I2">
-        <v>26.11997968088169</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.814420325416204</v>
+        <v>6.49570833082957</v>
       </c>
       <c r="K2">
-        <v>16.83404169796959</v>
+        <v>14.16803385595485</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.153138200379041</v>
       </c>
       <c r="M2">
-        <v>15.31237573592246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.87389138757244</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>33.1451785107847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.4065191822013</v>
+        <v>17.29014257671993</v>
       </c>
       <c r="C3">
-        <v>14.78754285002364</v>
+        <v>8.724883716003367</v>
       </c>
       <c r="D3">
-        <v>3.576016626023391</v>
+        <v>1.994074801897372</v>
       </c>
       <c r="E3">
-        <v>7.994636511536242</v>
+        <v>6.633357491037435</v>
       </c>
       <c r="F3">
-        <v>38.42732951367743</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>42.20945983239868</v>
       </c>
       <c r="I3">
-        <v>25.20797981532916</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.623167815985534</v>
+        <v>6.531732051413014</v>
       </c>
       <c r="K3">
-        <v>15.65840951051828</v>
+        <v>13.37662398933374</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.122649371568981</v>
       </c>
       <c r="M3">
-        <v>14.25451221535457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.54374472312161</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>32.41593081360142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.59925682551276</v>
+        <v>16.65331025189775</v>
       </c>
       <c r="C4">
-        <v>14.04129899926927</v>
+        <v>8.367538653042651</v>
       </c>
       <c r="D4">
-        <v>3.596927901746361</v>
+        <v>1.968344804486323</v>
       </c>
       <c r="E4">
-        <v>7.77221794441878</v>
+        <v>6.647614390373905</v>
       </c>
       <c r="F4">
-        <v>37.21275939635555</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>41.59131399419658</v>
       </c>
       <c r="I4">
-        <v>24.65451179898236</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.509795316495874</v>
+        <v>6.554564186195343</v>
       </c>
       <c r="K4">
-        <v>14.9004815982655</v>
+        <v>12.87755905428099</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.106703646070383</v>
       </c>
       <c r="M4">
-        <v>13.57322139883923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.34437453009344</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>31.98247331212074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2602708275333</v>
+        <v>16.389932212083</v>
       </c>
       <c r="C5">
-        <v>13.72839886219357</v>
+        <v>8.217901310410342</v>
       </c>
       <c r="D5">
-        <v>3.60549476999363</v>
+        <v>1.957968791854926</v>
       </c>
       <c r="E5">
-        <v>7.681613278924665</v>
+        <v>6.653654411044085</v>
       </c>
       <c r="F5">
-        <v>36.71551255130385</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>41.3438107770518</v>
       </c>
       <c r="I5">
-        <v>24.43070135606123</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.46460500798976</v>
+        <v>6.564051636313106</v>
       </c>
       <c r="K5">
-        <v>14.58238980743417</v>
+        <v>12.67109787546193</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.100892339154576</v>
       </c>
       <c r="M5">
-        <v>13.28747024959856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.26405525449611</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>31.80944884682971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.20337259901867</v>
+        <v>16.34597454290006</v>
       </c>
       <c r="C6">
-        <v>13.6759059709023</v>
+        <v>8.192811539374665</v>
       </c>
       <c r="D6">
-        <v>3.606920056096544</v>
+        <v>1.956252087064926</v>
       </c>
       <c r="E6">
-        <v>7.666573098218377</v>
+        <v>6.654671193553073</v>
       </c>
       <c r="F6">
-        <v>36.63281982752448</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>41.30298073560544</v>
       </c>
       <c r="I6">
-        <v>24.39364568220185</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.45716191443093</v>
+        <v>6.565638189539619</v>
       </c>
       <c r="K6">
-        <v>14.52900909545594</v>
+        <v>12.63663592724514</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.099968527512085</v>
       </c>
       <c r="M6">
-        <v>13.23952742568994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.25077678474052</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>31.78093693164962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.59472592559284</v>
+        <v>16.64977347190039</v>
       </c>
       <c r="C7">
-        <v>14.0371149575702</v>
+        <v>8.365536856944846</v>
       </c>
       <c r="D7">
-        <v>3.597043252805349</v>
+        <v>1.968204444764137</v>
       </c>
       <c r="E7">
-        <v>7.770995766875938</v>
+        <v>6.647694918935652</v>
       </c>
       <c r="F7">
-        <v>37.20606206124192</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>41.58795818122533</v>
       </c>
       <c r="I7">
-        <v>24.65148625475878</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.509181787571359</v>
+        <v>6.554691390774581</v>
       </c>
       <c r="K7">
-        <v>14.89622927131328</v>
+        <v>12.87478682873116</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.106622506902118</v>
       </c>
       <c r="M7">
-        <v>13.56940070241363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.34328745214905</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>31.98012519399306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.23415838567628</v>
+        <v>17.95569046948351</v>
       </c>
       <c r="C8">
-        <v>15.55423779611486</v>
+        <v>9.092499792115524</v>
       </c>
       <c r="D8">
-        <v>3.553855489603318</v>
+        <v>2.021941511168704</v>
       </c>
       <c r="E8">
-        <v>8.231856433815938</v>
+        <v>6.618937502590251</v>
       </c>
       <c r="F8">
-        <v>39.71437487391356</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>42.88389907410174</v>
       </c>
       <c r="I8">
-        <v>25.80422249844641</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.747627392064629</v>
+        <v>6.507983581726447</v>
       </c>
       <c r="K8">
-        <v>16.43607530211077</v>
+        <v>13.89799549062556</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.142043212772353</v>
       </c>
       <c r="M8">
-        <v>14.95413110697929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.7594131592894</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>32.89077455069878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.14627110028373</v>
+        <v>20.37684667507432</v>
       </c>
       <c r="C9">
-        <v>18.26515442347135</v>
+        <v>10.39281886016629</v>
       </c>
       <c r="D9">
-        <v>3.470571430220371</v>
+        <v>2.13185787317329</v>
       </c>
       <c r="E9">
-        <v>9.131503627618656</v>
+        <v>6.57000634151487</v>
       </c>
       <c r="F9">
-        <v>44.53642735969623</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>45.55894228111458</v>
       </c>
       <c r="I9">
-        <v>28.11371189635208</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.248077716009764</v>
+        <v>6.421866944696837</v>
       </c>
       <c r="K9">
-        <v>19.17712372872821</v>
+        <v>16.02167387902405</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.234014859592077</v>
       </c>
       <c r="M9">
-        <v>17.42437240439381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.59851174013081</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>34.78961354961821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.11358057249452</v>
+        <v>22.06252703274269</v>
       </c>
       <c r="C10">
-        <v>20.10872838415031</v>
+        <v>11.27435200574439</v>
       </c>
       <c r="D10">
-        <v>3.410289752856509</v>
+        <v>2.216442233213699</v>
       </c>
       <c r="E10">
-        <v>9.788108436354506</v>
+        <v>6.538809508435187</v>
       </c>
       <c r="F10">
-        <v>48.0135935635997</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>47.60365361851871</v>
       </c>
       <c r="I10">
-        <v>29.83995199818353</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.637202691279358</v>
+        <v>6.361659398590934</v>
       </c>
       <c r="K10">
-        <v>21.03308737793474</v>
+        <v>17.57646136111623</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.316018724173711</v>
       </c>
       <c r="M10">
-        <v>19.10042043491739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13.22513319327891</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>36.25395147289009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.97427267101942</v>
+        <v>22.80854685904058</v>
       </c>
       <c r="C11">
-        <v>20.91855947011432</v>
+        <v>11.66015896712463</v>
       </c>
       <c r="D11">
-        <v>3.383098665371103</v>
+        <v>2.256030528107246</v>
       </c>
       <c r="E11">
-        <v>10.08595948401832</v>
+        <v>6.525705834691574</v>
       </c>
       <c r="F11">
-        <v>49.58244430276095</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>48.55118454408529</v>
       </c>
       <c r="I11">
-        <v>30.63263134308752</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.819378236824086</v>
+        <v>6.334867142252612</v>
       </c>
       <c r="K11">
-        <v>21.84616580705011</v>
+        <v>18.25380421964472</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.35662180481454</v>
       </c>
       <c r="M11">
-        <v>19.8354955718717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.51180029362714</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.93559218568333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.29556332702458</v>
+        <v>23.08806306118115</v>
       </c>
       <c r="C12">
-        <v>21.22139415639507</v>
+        <v>11.80414933880895</v>
       </c>
       <c r="D12">
-        <v>3.372841001291649</v>
+        <v>2.271208161008424</v>
       </c>
       <c r="E12">
-        <v>10.19866877588636</v>
+        <v>6.520906057986184</v>
       </c>
       <c r="F12">
-        <v>50.17494954225341</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>48.91254474504962</v>
       </c>
       <c r="I12">
-        <v>30.93402502363235</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.889163499226131</v>
+        <v>6.324801305674396</v>
       </c>
       <c r="K12">
-        <v>22.14985853787465</v>
+        <v>18.50614693459362</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.372486050837319</v>
       </c>
       <c r="M12">
-        <v>20.11017703209294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13.62055367146457</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>37.19600862571004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.22656875830439</v>
+        <v>23.02799644642294</v>
       </c>
       <c r="C13">
-        <v>21.15633821374021</v>
+        <v>11.77323069222436</v>
       </c>
       <c r="D13">
-        <v>3.375048318761764</v>
+        <v>2.267930629570092</v>
       </c>
       <c r="E13">
-        <v>10.17439743331684</v>
+        <v>6.521932453455359</v>
       </c>
       <c r="F13">
-        <v>50.04740743755988</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>48.83460458272096</v>
       </c>
       <c r="I13">
-        <v>30.86905677333252</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.874097348277216</v>
+        <v>6.326965714944537</v>
       </c>
       <c r="K13">
-        <v>22.08463483297992</v>
+        <v>18.45198249619343</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.369047421456994</v>
       </c>
       <c r="M13">
-        <v>20.05117842018802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13.59712320561327</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>37.13981988750707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.00079654354784</v>
+        <v>22.83160246157908</v>
       </c>
       <c r="C14">
-        <v>20.9435486894205</v>
+        <v>11.67204684767624</v>
       </c>
       <c r="D14">
-        <v>3.382253937354788</v>
+        <v>2.257275298717094</v>
       </c>
       <c r="E14">
-        <v>10.09523342145498</v>
+        <v>6.52530766433704</v>
       </c>
       <c r="F14">
-        <v>49.63121971649178</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>48.58086227953078</v>
       </c>
       <c r="I14">
-        <v>30.657401493634</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.825103103760677</v>
+        <v>6.334037456415357</v>
       </c>
       <c r="K14">
-        <v>21.87123324625775</v>
+        <v>18.27464689644392</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.357917083730219</v>
       </c>
       <c r="M14">
-        <v>19.85816583081647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.52074365006098</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.95697034477371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.86191018265944</v>
+        <v>22.71091764380179</v>
       </c>
       <c r="C15">
-        <v>20.81272010572267</v>
+        <v>11.60979712719649</v>
       </c>
       <c r="D15">
-        <v>3.386672880648132</v>
+        <v>2.250773733617379</v>
       </c>
       <c r="E15">
-        <v>10.04673440191956</v>
+        <v>6.527396405457968</v>
       </c>
       <c r="F15">
-        <v>49.37609706360215</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>48.42577231427614</v>
       </c>
       <c r="I15">
-        <v>30.52792179417135</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.795198799496923</v>
+        <v>6.338379309583912</v>
       </c>
       <c r="K15">
-        <v>21.73998043377475</v>
+        <v>18.16548775689739</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.351163527831032</v>
       </c>
       <c r="M15">
-        <v>19.73946968958732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.47398413418408</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.84527091644139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.05666716242319</v>
+        <v>22.01335377039712</v>
       </c>
       <c r="C16">
-        <v>20.05524995142122</v>
+        <v>11.24883917986264</v>
       </c>
       <c r="D16">
-        <v>3.412071845346846</v>
+        <v>2.213879590840791</v>
       </c>
       <c r="E16">
-        <v>9.768629052507565</v>
+        <v>6.539688234934428</v>
       </c>
       <c r="F16">
-        <v>47.91082544390557</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>47.54208334260287</v>
       </c>
       <c r="I16">
-        <v>29.78830942036794</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.625405454814986</v>
+        <v>6.363421840494166</v>
       </c>
       <c r="K16">
-        <v>20.97934636225062</v>
+        <v>17.531605700418</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.313432798952316</v>
       </c>
       <c r="M16">
-        <v>19.05185228335213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13.20642809646091</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>36.2097214269826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.55410057276654</v>
+        <v>21.58008275763487</v>
       </c>
       <c r="C17">
-        <v>19.58339544354679</v>
+        <v>11.0235613386034</v>
       </c>
       <c r="D17">
-        <v>3.427715885800835</v>
+        <v>2.191548517823488</v>
       </c>
       <c r="E17">
-        <v>9.597824796044213</v>
+        <v>6.547511387048472</v>
       </c>
       <c r="F17">
-        <v>47.00876668618886</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>47.0044428417191</v>
       </c>
       <c r="I17">
-        <v>29.33656771518067</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.522600158387279</v>
+        <v>6.378933314885181</v>
       </c>
       <c r="K17">
-        <v>20.5049205779519</v>
+        <v>17.13517581124139</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.291140994331626</v>
       </c>
       <c r="M17">
-        <v>18.62318620455541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.04267590631686</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>35.82383966098723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.26179480638555</v>
+        <v>21.32891524868646</v>
       </c>
       <c r="C18">
-        <v>19.30926352201446</v>
+        <v>10.89255053046839</v>
       </c>
       <c r="D18">
-        <v>3.436735230347574</v>
+        <v>2.178806991841582</v>
       </c>
       <c r="E18">
-        <v>9.499499352126342</v>
+        <v>6.552113053571213</v>
       </c>
       <c r="F18">
-        <v>46.48868414326915</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>46.69683662591674</v>
       </c>
       <c r="I18">
-        <v>29.07742110400089</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.46395069544764</v>
+        <v>6.38791163326129</v>
       </c>
       <c r="K18">
-        <v>20.22908684158622</v>
+        <v>16.90433195350436</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.278628941369297</v>
       </c>
       <c r="M18">
-        <v>18.37403542471712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12.94864295412307</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>35.60334459329172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.16225988405804</v>
+        <v>21.24353789284652</v>
       </c>
       <c r="C19">
-        <v>19.21596875706266</v>
+        <v>10.84794349072529</v>
       </c>
       <c r="D19">
-        <v>3.439792548566322</v>
+        <v>2.174509816585076</v>
       </c>
       <c r="E19">
-        <v>9.466192955262196</v>
+        <v>6.553688453755393</v>
       </c>
       <c r="F19">
-        <v>46.3123737891856</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>46.59296564556477</v>
       </c>
       <c r="I19">
-        <v>28.98979221101209</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.44417420011896</v>
+        <v>6.390961419403118</v>
       </c>
       <c r="K19">
-        <v>20.13517836848806</v>
+        <v>16.82568208871335</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.27444533430687</v>
       </c>
       <c r="M19">
-        <v>18.28922446197656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.91683255399865</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>35.52893702269326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.60793326970971</v>
+        <v>21.62640829703161</v>
       </c>
       <c r="C20">
-        <v>19.63390594762589</v>
+        <v>11.04769072844322</v>
       </c>
       <c r="D20">
-        <v>3.426048312021283</v>
+        <v>2.193914886020965</v>
       </c>
       <c r="E20">
-        <v>9.61601562401883</v>
+        <v>6.546668003556551</v>
       </c>
       <c r="F20">
-        <v>47.10491942032133</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>47.06150662817454</v>
       </c>
       <c r="I20">
-        <v>29.3845847586521</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.533493769972324</v>
+        <v>6.377276282935999</v>
       </c>
       <c r="K20">
-        <v>20.55572805455258</v>
+        <v>17.17766806495887</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.293481852630007</v>
       </c>
       <c r="M20">
-        <v>18.66908507197261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.06009206499618</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>35.86476659609749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.0672346100603</v>
+        <v>22.88936888600706</v>
       </c>
       <c r="C21">
-        <v>21.00615138742608</v>
+        <v>11.70182345378111</v>
       </c>
       <c r="D21">
-        <v>3.380136355319669</v>
+        <v>2.260399736928834</v>
       </c>
       <c r="E21">
-        <v>10.11848752603385</v>
+        <v>6.524311826676911</v>
       </c>
       <c r="F21">
-        <v>49.75350421154287</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>48.65532267076262</v>
       </c>
       <c r="I21">
-        <v>30.71953494802312</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.839471666234543</v>
+        <v>6.331958198747746</v>
       </c>
       <c r="K21">
-        <v>21.93402605829603</v>
+        <v>18.32684606088608</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.36117294829637</v>
       </c>
       <c r="M21">
-        <v>19.91495581487368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13.54317296901625</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>37.01061475686149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.9941196726393</v>
+        <v>23.75734986699852</v>
       </c>
       <c r="C22">
-        <v>21.88084205823058</v>
+        <v>12.11710670454892</v>
       </c>
       <c r="D22">
-        <v>3.350362274216197</v>
+        <v>2.304953184110318</v>
       </c>
       <c r="E22">
-        <v>10.44645323689173</v>
+        <v>6.51065025014984</v>
       </c>
       <c r="F22">
-        <v>51.4755083650758</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>49.71190121561851</v>
       </c>
       <c r="I22">
-        <v>31.59926111481483</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>9.044144597563294</v>
+        <v>6.302802227301046</v>
       </c>
       <c r="K22">
-        <v>22.81048919198024</v>
+        <v>19.05377960951527</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.408269483280112</v>
       </c>
       <c r="M22">
-        <v>20.70792756991143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13.86004903076315</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>37.77291808642072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.50177503136576</v>
+        <v>23.28373658843991</v>
       </c>
       <c r="C23">
-        <v>21.4159149527695</v>
+        <v>11.89655117492417</v>
       </c>
       <c r="D23">
-        <v>3.366229429897323</v>
+        <v>2.281063513069101</v>
       </c>
       <c r="E23">
-        <v>10.27142989236546</v>
+        <v>6.517852609810657</v>
       </c>
       <c r="F23">
-        <v>50.55713556853437</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>49.14658971711657</v>
       </c>
       <c r="I23">
-        <v>31.12899814890339</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>8.934453333810797</v>
+        <v>6.318323159447337</v>
       </c>
       <c r="K23">
-        <v>22.34482654686402</v>
+        <v>18.66795400599563</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.382866688020705</v>
       </c>
       <c r="M23">
-        <v>20.28655512416233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13.69082745193458</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>37.36480392908433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.58360603664997</v>
+        <v>21.60547098138552</v>
       </c>
       <c r="C24">
-        <v>19.61107906912491</v>
+        <v>11.03678649558822</v>
       </c>
       <c r="D24">
-        <v>3.426802143491759</v>
+        <v>2.192844751088311</v>
       </c>
       <c r="E24">
-        <v>9.60779195143617</v>
+        <v>6.547048973624574</v>
       </c>
       <c r="F24">
-        <v>47.06145338841788</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>47.03570345106086</v>
       </c>
       <c r="I24">
-        <v>29.36287450221895</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.528567356056763</v>
+        <v>6.378025237989831</v>
       </c>
       <c r="K24">
-        <v>20.53276760904433</v>
+        <v>17.15846645791773</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.292422605380887</v>
       </c>
       <c r="M24">
-        <v>18.64834263844896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.0522178731647</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35.84625931727502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.38967761698195</v>
+        <v>19.73784527039111</v>
       </c>
       <c r="C25">
-        <v>17.55881311976237</v>
+        <v>10.05424021677891</v>
       </c>
       <c r="D25">
-        <v>3.492949888967846</v>
+        <v>2.101534819060872</v>
       </c>
       <c r="E25">
-        <v>8.888840054105499</v>
+        <v>6.582425640514924</v>
       </c>
       <c r="F25">
-        <v>43.24343393340548</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>44.82125992019478</v>
       </c>
       <c r="I25">
-        <v>27.48389859781207</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.109056748064907</v>
+        <v>6.444604708814239</v>
       </c>
       <c r="K25">
-        <v>18.46426296558839</v>
+        <v>15.42162578818436</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.206652175986558</v>
       </c>
       <c r="M25">
-        <v>16.78133258393395</v>
+        <v>12.36948667730189</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>34.26383738866072</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.30049270635242</v>
+        <v>19.27800728494039</v>
       </c>
       <c r="C2">
-        <v>9.280927059261254</v>
+        <v>12.53151796790718</v>
       </c>
       <c r="D2">
-        <v>2.036773576431936</v>
+        <v>4.242710525952044</v>
       </c>
       <c r="E2">
-        <v>6.611644245459796</v>
+        <v>7.26872768038879</v>
       </c>
       <c r="F2">
-        <v>43.24420463898642</v>
+        <v>19.3818851935652</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.64196255973483</v>
       </c>
       <c r="J2">
-        <v>6.49570833082957</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.16803385595485</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.153138200379041</v>
+        <v>6.283508569110904</v>
       </c>
       <c r="M2">
-        <v>11.87389138757244</v>
+        <v>11.56274902141356</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.99679806484658</v>
       </c>
       <c r="O2">
-        <v>33.1451785107847</v>
+        <v>15.22822020380549</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.29014257671993</v>
+        <v>17.98713252022688</v>
       </c>
       <c r="C3">
-        <v>8.724883716003367</v>
+        <v>11.96459109506385</v>
       </c>
       <c r="D3">
-        <v>1.994074801897372</v>
+        <v>4.122549728731912</v>
       </c>
       <c r="E3">
-        <v>6.633357491037435</v>
+        <v>7.358472778605356</v>
       </c>
       <c r="F3">
-        <v>42.20945983239868</v>
+        <v>18.77137754379172</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.72560474250109</v>
       </c>
       <c r="J3">
-        <v>6.531732051413014</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>13.37662398933374</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.122649371568981</v>
+        <v>6.196178189187046</v>
       </c>
       <c r="M3">
-        <v>11.54374472312161</v>
+        <v>11.0227932532791</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.14825647045708</v>
       </c>
       <c r="O3">
-        <v>32.41593081360142</v>
+        <v>14.97806981203964</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.65331025189775</v>
+        <v>17.14710712760914</v>
       </c>
       <c r="C4">
-        <v>8.367538653042651</v>
+        <v>11.60192269225802</v>
       </c>
       <c r="D4">
-        <v>1.968344804486323</v>
+        <v>4.046565255747722</v>
       </c>
       <c r="E4">
-        <v>6.647614390373905</v>
+        <v>7.415753112677466</v>
       </c>
       <c r="F4">
-        <v>41.59131399419658</v>
+        <v>18.40531577635149</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.78980854384665</v>
       </c>
       <c r="J4">
-        <v>6.554564186195343</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>12.87755905428099</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.106703646070383</v>
+        <v>6.144901212971278</v>
       </c>
       <c r="M4">
-        <v>11.34437453009344</v>
+        <v>10.68115515471938</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.2445462649006</v>
       </c>
       <c r="O4">
-        <v>31.98247331212074</v>
+        <v>14.83717476725979</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.389932212083</v>
+        <v>16.79280151876376</v>
       </c>
       <c r="C5">
-        <v>8.217901310410342</v>
+        <v>11.45057916395364</v>
       </c>
       <c r="D5">
-        <v>1.957968791854926</v>
+        <v>4.01507341579265</v>
       </c>
       <c r="E5">
-        <v>6.653654411044085</v>
+        <v>7.439644081646886</v>
       </c>
       <c r="F5">
-        <v>41.3438107770518</v>
+        <v>18.25854634498759</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.8190554477817</v>
       </c>
       <c r="J5">
-        <v>6.564051636313106</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>12.67109787546193</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.100892339154576</v>
+        <v>6.124605941351803</v>
       </c>
       <c r="M5">
-        <v>11.26405525449611</v>
+        <v>10.53957522438753</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.28461199424621</v>
       </c>
       <c r="O5">
-        <v>31.80944884682971</v>
+        <v>14.78292900806563</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.34597454290006</v>
+        <v>16.73324343819579</v>
       </c>
       <c r="C6">
-        <v>8.192811539374665</v>
+        <v>11.42523772598727</v>
       </c>
       <c r="D6">
-        <v>1.956252087064926</v>
+        <v>4.009813190714332</v>
       </c>
       <c r="E6">
-        <v>6.654671193553073</v>
+        <v>7.443644349384805</v>
       </c>
       <c r="F6">
-        <v>41.30298073560544</v>
+        <v>18.23432620567232</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.82409387669631</v>
       </c>
       <c r="J6">
-        <v>6.565638189539619</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>12.63663592724514</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.099968527512085</v>
+        <v>6.121272493525637</v>
       </c>
       <c r="M6">
-        <v>11.25077678474052</v>
+        <v>10.51592929934047</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.29131479364282</v>
       </c>
       <c r="O6">
-        <v>31.78093693164962</v>
+        <v>14.77411210783863</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.64977347190039</v>
+        <v>17.14237746244709</v>
       </c>
       <c r="C7">
-        <v>8.365536856944846</v>
+        <v>11.59989584571069</v>
       </c>
       <c r="D7">
-        <v>1.968204444764137</v>
+        <v>4.04614264447846</v>
       </c>
       <c r="E7">
-        <v>6.647694918935652</v>
+        <v>7.416073090605869</v>
       </c>
       <c r="F7">
-        <v>41.58795818122533</v>
+        <v>18.40332640485466</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.79019068493401</v>
       </c>
       <c r="J7">
-        <v>6.554691390774581</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>12.87478682873116</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.106622506902118</v>
+        <v>6.144625058741079</v>
       </c>
       <c r="M7">
-        <v>11.34328745214905</v>
+        <v>10.67925505298621</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.24508325861128</v>
       </c>
       <c r="O7">
-        <v>31.98012519399306</v>
+        <v>14.83643039318756</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.95569046948351</v>
+        <v>18.84271758403898</v>
       </c>
       <c r="C8">
-        <v>9.092499792115524</v>
+        <v>12.3391269423764</v>
       </c>
       <c r="D8">
-        <v>2.021941511168704</v>
+        <v>4.201752249072597</v>
       </c>
       <c r="E8">
-        <v>6.618937502590251</v>
+        <v>7.299220906218014</v>
       </c>
       <c r="F8">
-        <v>42.88389907410174</v>
+        <v>19.16967232718324</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.66804617763501</v>
       </c>
       <c r="J8">
-        <v>6.507983581726447</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>13.89799549062556</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.142043212772353</v>
+        <v>6.252917488118085</v>
       </c>
       <c r="M8">
-        <v>11.7594131592894</v>
+        <v>11.37876925302757</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.04833623936323</v>
       </c>
       <c r="O8">
-        <v>32.89077455069878</v>
+        <v>15.13932245707147</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.37684667507432</v>
+        <v>21.80374150467961</v>
       </c>
       <c r="C9">
-        <v>10.39281886016629</v>
+        <v>13.66920353609689</v>
       </c>
       <c r="D9">
-        <v>2.13185787317329</v>
+        <v>4.488339416924712</v>
       </c>
       <c r="E9">
-        <v>6.57000634151487</v>
+        <v>7.087283091897979</v>
       </c>
       <c r="F9">
-        <v>45.55894228111458</v>
+        <v>20.73401179693569</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.53723284753763</v>
       </c>
       <c r="J9">
-        <v>6.421866944696837</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>16.02167387902405</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.234014859592077</v>
+        <v>6.483347428654039</v>
       </c>
       <c r="M9">
-        <v>12.59851174013081</v>
+        <v>12.80872504961143</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.68875216148082</v>
       </c>
       <c r="O9">
-        <v>34.78961354961821</v>
+        <v>15.83454971117033</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.06252703274269</v>
+        <v>23.75579587531557</v>
       </c>
       <c r="C10">
-        <v>11.27435200574439</v>
+        <v>14.56947961587822</v>
       </c>
       <c r="D10">
-        <v>2.216442233213699</v>
+        <v>4.686319020090089</v>
       </c>
       <c r="E10">
-        <v>6.538809508435187</v>
+        <v>6.941992594245011</v>
       </c>
       <c r="F10">
-        <v>47.60365361851871</v>
+        <v>21.91059099906899</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.51690115465393</v>
       </c>
       <c r="J10">
-        <v>6.361659398590934</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.57646136111623</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.316018724173711</v>
+        <v>6.662909694325801</v>
       </c>
       <c r="M10">
-        <v>13.22513319327891</v>
+        <v>13.89941415403229</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.44077435870427</v>
       </c>
       <c r="O10">
-        <v>36.25395147289009</v>
+        <v>16.40715488427531</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.80854685904058</v>
+        <v>24.59625976689187</v>
       </c>
       <c r="C11">
-        <v>11.66015896712463</v>
+        <v>14.9617752631741</v>
       </c>
       <c r="D11">
-        <v>2.256030528107246</v>
+        <v>4.773433173464714</v>
       </c>
       <c r="E11">
-        <v>6.525705834691574</v>
+        <v>6.878150183703255</v>
       </c>
       <c r="F11">
-        <v>48.55118454408529</v>
+        <v>22.44989705379178</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.52619349741723</v>
       </c>
       <c r="J11">
-        <v>6.334867142252612</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>18.25380421964472</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.35662180481454</v>
+        <v>6.746661895824671</v>
       </c>
       <c r="M11">
-        <v>13.51180029362714</v>
+        <v>14.37039582673574</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.33155829884301</v>
       </c>
       <c r="O11">
-        <v>36.93559218568333</v>
+        <v>16.68095601725343</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08806306118115</v>
+        <v>24.90776367373055</v>
       </c>
       <c r="C12">
-        <v>11.80414933880895</v>
+        <v>15.10781694377918</v>
       </c>
       <c r="D12">
-        <v>2.271208161008424</v>
+        <v>4.805981450061752</v>
       </c>
       <c r="E12">
-        <v>6.520906057986184</v>
+        <v>6.854298509277109</v>
       </c>
       <c r="F12">
-        <v>48.91254474504962</v>
+        <v>22.65457306388573</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.53255172569197</v>
       </c>
       <c r="J12">
-        <v>6.324801305674396</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>18.50614693459362</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.372486050837319</v>
+        <v>6.77866038740859</v>
       </c>
       <c r="M12">
-        <v>13.62055367146457</v>
+        <v>14.5451560815819</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.2907264793469</v>
       </c>
       <c r="O12">
-        <v>37.19600862571004</v>
+        <v>16.78653656431174</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.02799644642294</v>
+        <v>24.84097525062513</v>
       </c>
       <c r="C13">
-        <v>11.77323069222436</v>
+        <v>15.07647638515513</v>
       </c>
       <c r="D13">
-        <v>2.267930629570092</v>
+        <v>4.798991398412576</v>
       </c>
       <c r="E13">
-        <v>6.521932453455359</v>
+        <v>6.859420970107983</v>
       </c>
       <c r="F13">
-        <v>48.83460458272096</v>
+        <v>22.61047419006961</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.53105332640845</v>
       </c>
       <c r="J13">
-        <v>6.326965714944537</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>18.45198249619343</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.369047421456994</v>
+        <v>6.771756554780334</v>
       </c>
       <c r="M13">
-        <v>13.59712320561327</v>
+        <v>14.50767748586778</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.29949677471388</v>
       </c>
       <c r="O13">
-        <v>37.13981988750707</v>
+        <v>16.76371377648863</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.83160246157908</v>
+        <v>24.62202245954352</v>
       </c>
       <c r="C14">
-        <v>11.67204684767624</v>
+        <v>14.97384069479197</v>
       </c>
       <c r="D14">
-        <v>2.257275298717094</v>
+        <v>4.776119842212774</v>
       </c>
       <c r="E14">
-        <v>6.52530766433704</v>
+        <v>6.876181393503297</v>
       </c>
       <c r="F14">
-        <v>48.58086227953078</v>
+        <v>22.46672749030588</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.52665869449909</v>
       </c>
       <c r="J14">
-        <v>6.334037456415357</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>18.27464689644392</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.357917083730219</v>
+        <v>6.74928883056511</v>
       </c>
       <c r="M14">
-        <v>13.52074365006098</v>
+        <v>14.38484522433588</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.32818843712996</v>
       </c>
       <c r="O14">
-        <v>36.95697034477371</v>
+        <v>16.68960425668839</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.71091764380179</v>
+        <v>24.48702923897151</v>
       </c>
       <c r="C15">
-        <v>11.60979712719649</v>
+        <v>14.9106454364108</v>
       </c>
       <c r="D15">
-        <v>2.250773733617379</v>
+        <v>4.762052614773826</v>
       </c>
       <c r="E15">
-        <v>6.527396405457968</v>
+        <v>6.886489858684347</v>
       </c>
       <c r="F15">
-        <v>48.42577231427614</v>
+        <v>22.37873382644729</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.52434177262076</v>
       </c>
       <c r="J15">
-        <v>6.338379309583912</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>18.16548775689739</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.351163527831032</v>
+        <v>6.735563194254233</v>
       </c>
       <c r="M15">
-        <v>13.47398413418408</v>
+        <v>14.30914032718236</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.34583172346544</v>
       </c>
       <c r="O15">
-        <v>36.84527091644139</v>
+        <v>16.64445667729149</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.01335377039712</v>
+        <v>23.69991932233892</v>
       </c>
       <c r="C16">
-        <v>11.24883917986264</v>
+        <v>14.54349214487541</v>
       </c>
       <c r="D16">
-        <v>2.213879590840791</v>
+        <v>4.680565168042961</v>
       </c>
       <c r="E16">
-        <v>6.539688234934428</v>
+        <v>6.946210162046175</v>
       </c>
       <c r="F16">
-        <v>47.54208334260287</v>
+        <v>21.87541617775923</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.51668177886866</v>
       </c>
       <c r="J16">
-        <v>6.363421840494166</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>17.531605700418</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.313432798952316</v>
+        <v>6.657476695225949</v>
       </c>
       <c r="M16">
-        <v>13.20642809646091</v>
+        <v>13.86813023931972</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.44798490853659</v>
       </c>
       <c r="O16">
-        <v>36.2097214269826</v>
+        <v>16.38952791291461</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.58008275763487</v>
+        <v>23.20492984911461</v>
       </c>
       <c r="C17">
-        <v>11.0235613386034</v>
+        <v>14.31381214560399</v>
       </c>
       <c r="D17">
-        <v>2.191548517823488</v>
+        <v>4.629808179130701</v>
       </c>
       <c r="E17">
-        <v>6.547511387048472</v>
+        <v>6.9834232754682</v>
       </c>
       <c r="F17">
-        <v>47.0044428417191</v>
+        <v>21.56758903356088</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.51685464011286</v>
       </c>
       <c r="J17">
-        <v>6.378933314885181</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>17.13517581124139</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.291140994331626</v>
+        <v>6.610092731374088</v>
       </c>
       <c r="M17">
-        <v>13.04267590631686</v>
+        <v>13.59115631026696</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.51157835721821</v>
       </c>
       <c r="O17">
-        <v>35.82383966098723</v>
+        <v>16.23653709437639</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.32891524868646</v>
+        <v>22.91574617304068</v>
       </c>
       <c r="C18">
-        <v>10.89255053046839</v>
+        <v>14.18008434808402</v>
       </c>
       <c r="D18">
-        <v>2.178806991841582</v>
+        <v>4.600337473000544</v>
       </c>
       <c r="E18">
-        <v>6.552113053571213</v>
+        <v>7.005039095502205</v>
       </c>
       <c r="F18">
-        <v>46.69683662591674</v>
+        <v>21.39092518761514</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.51868885437929</v>
       </c>
       <c r="J18">
-        <v>6.38791163326129</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>16.90433195350436</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.278628941369297</v>
+        <v>6.583034236925364</v>
       </c>
       <c r="M18">
-        <v>12.94864295412307</v>
+        <v>13.4294762410082</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.5484928645881</v>
       </c>
       <c r="O18">
-        <v>35.60334459329172</v>
+        <v>16.14979579697785</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.24353789284652</v>
+        <v>22.8170620899937</v>
       </c>
       <c r="C19">
-        <v>10.84794349072529</v>
+        <v>14.13452901487249</v>
       </c>
       <c r="D19">
-        <v>2.174509816585076</v>
+        <v>4.590312210309739</v>
       </c>
       <c r="E19">
-        <v>6.553688453755393</v>
+        <v>7.012394217718097</v>
       </c>
       <c r="F19">
-        <v>46.59296564556477</v>
+        <v>21.33118127078631</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.51960256605179</v>
       </c>
       <c r="J19">
-        <v>6.390961419403118</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>16.82568208871335</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.27444533430687</v>
+        <v>6.573906712993749</v>
       </c>
       <c r="M19">
-        <v>12.91683255399865</v>
+        <v>13.37432590082738</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.56104914293015</v>
       </c>
       <c r="O19">
-        <v>35.52893702269326</v>
+        <v>16.12064273401217</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.62640829703161</v>
+        <v>23.25808533592879</v>
       </c>
       <c r="C20">
-        <v>11.04769072844322</v>
+        <v>14.33843010777186</v>
       </c>
       <c r="D20">
-        <v>2.193914886020965</v>
+        <v>4.635240100149811</v>
       </c>
       <c r="E20">
-        <v>6.546668003556551</v>
+        <v>6.979439952145245</v>
       </c>
       <c r="F20">
-        <v>47.06150662817454</v>
+        <v>21.60031840997735</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.51665544049913</v>
       </c>
       <c r="J20">
-        <v>6.377276282935999</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>17.17766806495887</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.293481852630007</v>
+        <v>6.615116704839617</v>
       </c>
       <c r="M20">
-        <v>13.06009206499618</v>
+        <v>13.62088594340833</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.50477375994765</v>
       </c>
       <c r="O20">
-        <v>35.86476659609749</v>
+        <v>16.2526934654026</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.88936888600706</v>
+        <v>24.68651710608921</v>
       </c>
       <c r="C21">
-        <v>11.70182345378111</v>
+        <v>15.00405566897908</v>
       </c>
       <c r="D21">
-        <v>2.260399736928834</v>
+        <v>4.782849831293021</v>
       </c>
       <c r="E21">
-        <v>6.524311826676911</v>
+        <v>6.871249650487517</v>
       </c>
       <c r="F21">
-        <v>48.65532267076262</v>
+        <v>22.50893805505624</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.52787106319684</v>
       </c>
       <c r="J21">
-        <v>6.331958198747746</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>18.32684606088608</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.36117294829637</v>
+        <v>6.755880564742718</v>
       </c>
       <c r="M21">
-        <v>13.54317296901625</v>
+        <v>14.42102121413563</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.3197466392185</v>
       </c>
       <c r="O21">
-        <v>37.01061475686149</v>
+        <v>16.71132065129811</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.75734986699852</v>
+        <v>25.58070456513117</v>
       </c>
       <c r="C22">
-        <v>12.11710670454892</v>
+        <v>15.4244300476899</v>
       </c>
       <c r="D22">
-        <v>2.304953184110318</v>
+        <v>4.876750826719799</v>
       </c>
       <c r="E22">
-        <v>6.51065025014984</v>
+        <v>6.802430455114042</v>
       </c>
       <c r="F22">
-        <v>49.71190121561851</v>
+        <v>23.10536487053793</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.55183153752045</v>
       </c>
       <c r="J22">
-        <v>6.302802227301046</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>19.05377960951527</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.408269483280112</v>
+        <v>6.849523472576946</v>
       </c>
       <c r="M22">
-        <v>13.86004903076315</v>
+        <v>14.92304588295414</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.20189231438517</v>
       </c>
       <c r="O22">
-        <v>37.77291808642072</v>
+        <v>17.02211480751051</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.28373658843991</v>
+        <v>25.10703764950728</v>
       </c>
       <c r="C23">
-        <v>11.89655117492417</v>
+        <v>15.20141679038965</v>
       </c>
       <c r="D23">
-        <v>2.281063513069101</v>
+        <v>4.826874094789104</v>
       </c>
       <c r="E23">
-        <v>6.517852609810657</v>
+        <v>6.838987415244489</v>
       </c>
       <c r="F23">
-        <v>49.14658971711657</v>
+        <v>22.7868419370709</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.53746453312451</v>
       </c>
       <c r="J23">
-        <v>6.318323159447337</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>18.66795400599563</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.382866688020705</v>
+        <v>6.799398386252922</v>
       </c>
       <c r="M23">
-        <v>13.69082745193458</v>
+        <v>14.65700805930888</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.2645085766586</v>
       </c>
       <c r="O23">
-        <v>37.36480392908433</v>
+        <v>16.85523248463402</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.60547098138552</v>
+        <v>23.23406809766491</v>
       </c>
       <c r="C24">
-        <v>11.03678649558822</v>
+        <v>14.32730556263405</v>
       </c>
       <c r="D24">
-        <v>2.192844751088311</v>
+        <v>4.632785230193016</v>
       </c>
       <c r="E24">
-        <v>6.547048973624574</v>
+        <v>6.981240122701355</v>
       </c>
       <c r="F24">
-        <v>47.03570345106086</v>
+        <v>21.58552048268132</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.51674010815066</v>
       </c>
       <c r="J24">
-        <v>6.378025237989831</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>17.15846645791773</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.292422605380887</v>
+        <v>6.612844794799829</v>
       </c>
       <c r="M24">
-        <v>13.0522178731647</v>
+        <v>13.60745279123926</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.50784901711007</v>
       </c>
       <c r="O24">
-        <v>35.84625931727502</v>
+        <v>16.24538538377091</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.73784527039111</v>
+        <v>21.04224839838644</v>
       </c>
       <c r="C25">
-        <v>10.05424021677891</v>
+        <v>13.32265859715698</v>
       </c>
       <c r="D25">
-        <v>2.101534819060872</v>
+        <v>4.412936094161654</v>
       </c>
       <c r="E25">
-        <v>6.582425640514924</v>
+        <v>7.142783971236945</v>
       </c>
       <c r="F25">
-        <v>44.82125992019478</v>
+        <v>20.30533589368736</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.56001318777461</v>
       </c>
       <c r="J25">
-        <v>6.444604708814239</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>15.42162578818436</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.206652175986558</v>
+        <v>6.419151167171101</v>
       </c>
       <c r="M25">
-        <v>12.36948667730189</v>
+        <v>12.38456541038301</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.78320329599098</v>
       </c>
       <c r="O25">
-        <v>34.26383738866072</v>
+        <v>15.63559170474211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.27800728494039</v>
+        <v>14.20422986892704</v>
       </c>
       <c r="C2">
-        <v>12.53151796790718</v>
+        <v>10.21172724742361</v>
       </c>
       <c r="D2">
-        <v>4.242710525952044</v>
+        <v>4.83238250962721</v>
       </c>
       <c r="E2">
-        <v>7.26872768038879</v>
+        <v>12.21280148691869</v>
       </c>
       <c r="F2">
-        <v>19.3818851935652</v>
+        <v>24.66609776886317</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>13.64196255973483</v>
+        <v>22.11756352582325</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.283508569110904</v>
+        <v>10.02367379382293</v>
       </c>
       <c r="M2">
-        <v>11.56274902141356</v>
+        <v>14.38219852680218</v>
       </c>
       <c r="N2">
-        <v>11.99679806484658</v>
+        <v>17.83463344637391</v>
       </c>
       <c r="O2">
-        <v>15.22822020380549</v>
+        <v>22.00045793095433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.98713252022688</v>
+        <v>13.73990935458</v>
       </c>
       <c r="C3">
-        <v>11.96459109506385</v>
+        <v>9.980055976118397</v>
       </c>
       <c r="D3">
-        <v>4.122549728731912</v>
+        <v>4.793411487157504</v>
       </c>
       <c r="E3">
-        <v>7.358472778605356</v>
+        <v>12.24915560344527</v>
       </c>
       <c r="F3">
-        <v>18.77137754379172</v>
+        <v>24.64339444581201</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>13.72560474250109</v>
+        <v>22.20910413977147</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.196178189187046</v>
+        <v>10.03130675015695</v>
       </c>
       <c r="M3">
-        <v>11.0227932532791</v>
+        <v>14.29024941157946</v>
       </c>
       <c r="N3">
-        <v>12.14825647045708</v>
+        <v>17.88579679501933</v>
       </c>
       <c r="O3">
-        <v>14.97806981203964</v>
+        <v>22.03916748154758</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.14710712760914</v>
+        <v>13.44848288234643</v>
       </c>
       <c r="C4">
-        <v>11.60192269225802</v>
+        <v>9.833686894173088</v>
       </c>
       <c r="D4">
-        <v>4.046565255747722</v>
+        <v>4.768982357822702</v>
       </c>
       <c r="E4">
-        <v>7.415753112677466</v>
+        <v>12.27270465952876</v>
       </c>
       <c r="F4">
-        <v>18.40531577635149</v>
+        <v>24.63673152213481</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>13.78980854384665</v>
+        <v>22.26998999818572</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.144901212971278</v>
+        <v>10.0374033365541</v>
       </c>
       <c r="M4">
-        <v>10.68115515471938</v>
+        <v>14.23559042766703</v>
       </c>
       <c r="N4">
-        <v>12.2445462649006</v>
+        <v>17.91897478227963</v>
       </c>
       <c r="O4">
-        <v>14.83717476725979</v>
+        <v>22.06847598540774</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.79280151876376</v>
+        <v>13.32831459669356</v>
       </c>
       <c r="C5">
-        <v>11.45057916395364</v>
+        <v>9.77305532501253</v>
       </c>
       <c r="D5">
-        <v>4.01507341579265</v>
+        <v>4.758905258728173</v>
       </c>
       <c r="E5">
-        <v>7.439644081646886</v>
+        <v>12.28261052454263</v>
       </c>
       <c r="F5">
-        <v>18.25854634498759</v>
+        <v>24.63584853381387</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>13.8190554477817</v>
+        <v>22.2959762434817</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.124605941351803</v>
+        <v>10.04024278590899</v>
       </c>
       <c r="M5">
-        <v>10.53957522438753</v>
+        <v>14.21378646875387</v>
       </c>
       <c r="N5">
-        <v>12.28461199424621</v>
+        <v>17.93293948704045</v>
       </c>
       <c r="O5">
-        <v>14.78292900806563</v>
+        <v>22.081809496405</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.73324343819579</v>
+        <v>13.30828123642056</v>
       </c>
       <c r="C6">
-        <v>11.42523772598727</v>
+        <v>9.76292957508165</v>
       </c>
       <c r="D6">
-        <v>4.009813190714332</v>
+        <v>4.757224708089232</v>
       </c>
       <c r="E6">
-        <v>7.443644349384805</v>
+        <v>12.28427409769018</v>
       </c>
       <c r="F6">
-        <v>18.23432620567232</v>
+        <v>24.63581261118838</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>13.82409387669631</v>
+        <v>22.30036213564803</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.121272493525637</v>
+        <v>10.04073573121928</v>
       </c>
       <c r="M6">
-        <v>10.51592929934047</v>
+        <v>14.21019483447679</v>
       </c>
       <c r="N6">
-        <v>12.29131479364282</v>
+        <v>17.93528518519687</v>
       </c>
       <c r="O6">
-        <v>14.77411210783863</v>
+        <v>22.08410736927172</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.14237746244709</v>
+        <v>13.44686770607901</v>
       </c>
       <c r="C7">
-        <v>11.59989584571069</v>
+        <v>9.832873113424814</v>
       </c>
       <c r="D7">
-        <v>4.04614264447846</v>
+        <v>4.768846943481596</v>
       </c>
       <c r="E7">
-        <v>7.416073090605869</v>
+        <v>12.27283699957011</v>
       </c>
       <c r="F7">
-        <v>18.40332640485466</v>
+        <v>24.63671219345723</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>13.79019068493401</v>
+        <v>22.2703357037905</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.144625058741079</v>
+        <v>10.03744019219962</v>
       </c>
       <c r="M7">
-        <v>10.67925505298621</v>
+        <v>14.23529444567835</v>
       </c>
       <c r="N7">
-        <v>12.24508325861128</v>
+        <v>17.91916131450795</v>
       </c>
       <c r="O7">
-        <v>14.83643039318756</v>
+        <v>22.06865018209562</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.84271758403898</v>
+        <v>14.04555115857307</v>
       </c>
       <c r="C8">
-        <v>12.3391269423764</v>
+        <v>10.13273245453489</v>
       </c>
       <c r="D8">
-        <v>4.201752249072597</v>
+        <v>4.819051554051287</v>
       </c>
       <c r="E8">
-        <v>7.299220906218014</v>
+        <v>12.22508208881206</v>
       </c>
       <c r="F8">
-        <v>19.16967232718324</v>
+        <v>24.65676121854692</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>13.66804617763501</v>
+        <v>22.14815432106368</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.252917488118085</v>
+        <v>10.02601333122902</v>
       </c>
       <c r="M8">
-        <v>11.37876925302757</v>
+        <v>14.3501321853103</v>
       </c>
       <c r="N8">
-        <v>12.04833623936323</v>
+        <v>17.85190913603159</v>
       </c>
       <c r="O8">
-        <v>15.13932245707147</v>
+        <v>22.01265323368993</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.80374150467961</v>
+        <v>15.16207796500661</v>
       </c>
       <c r="C9">
-        <v>13.66920353609689</v>
+        <v>10.68594802290962</v>
       </c>
       <c r="D9">
-        <v>4.488339416924712</v>
+        <v>4.913361899823479</v>
       </c>
       <c r="E9">
-        <v>7.087283091897979</v>
+        <v>12.14113898361741</v>
       </c>
       <c r="F9">
-        <v>20.73401179693569</v>
+        <v>24.75364078588575</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>13.53723284753763</v>
+        <v>21.9457738828831</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.483347428654039</v>
+        <v>10.01476814830285</v>
       </c>
       <c r="M9">
-        <v>12.80872504961143</v>
+        <v>14.58878220473859</v>
       </c>
       <c r="N9">
-        <v>11.68875216148082</v>
+        <v>17.73397659386121</v>
       </c>
       <c r="O9">
-        <v>15.83454971117033</v>
+        <v>21.94692975560497</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.75579587531557</v>
+        <v>15.93870137602903</v>
       </c>
       <c r="C10">
-        <v>14.56947961587822</v>
+        <v>11.06859139950418</v>
       </c>
       <c r="D10">
-        <v>4.686319020090089</v>
+        <v>4.979908562590854</v>
       </c>
       <c r="E10">
-        <v>6.941992594245011</v>
+        <v>12.08533221235184</v>
       </c>
       <c r="F10">
-        <v>21.91059099906899</v>
+        <v>24.859566912243</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>13.51690115465393</v>
+        <v>21.81989157081329</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.662909694325801</v>
+        <v>10.01327586716003</v>
       </c>
       <c r="M10">
-        <v>13.89941415403229</v>
+        <v>14.77119305268245</v>
       </c>
       <c r="N10">
-        <v>11.44077435870427</v>
+        <v>17.65577435098551</v>
       </c>
       <c r="O10">
-        <v>16.40715488427531</v>
+        <v>21.92565899360904</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.59625976689187</v>
+        <v>16.28098764165287</v>
       </c>
       <c r="C11">
-        <v>14.9617752631741</v>
+        <v>11.23701457216891</v>
       </c>
       <c r="D11">
-        <v>4.773433173464714</v>
+        <v>5.00954143906003</v>
       </c>
       <c r="E11">
-        <v>6.878150183703255</v>
+        <v>12.06120753507894</v>
       </c>
       <c r="F11">
-        <v>22.44989705379178</v>
+        <v>24.91519212377981</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>13.52619349741723</v>
+        <v>21.76760207721439</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.746661895824671</v>
+        <v>10.01405776598019</v>
       </c>
       <c r="M11">
-        <v>14.37039582673574</v>
+        <v>14.85546346271525</v>
       </c>
       <c r="N11">
-        <v>11.33155829884301</v>
+        <v>17.62201874855022</v>
       </c>
       <c r="O11">
-        <v>16.68095601725343</v>
+        <v>21.92186768430121</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.90776367373055</v>
+        <v>16.40891090955342</v>
       </c>
       <c r="C12">
-        <v>15.10781694377918</v>
+        <v>11.29994440079852</v>
       </c>
       <c r="D12">
-        <v>4.805981450061752</v>
+        <v>5.020666903479886</v>
       </c>
       <c r="E12">
-        <v>6.854298509277109</v>
+        <v>12.05225285282173</v>
       </c>
       <c r="F12">
-        <v>22.65457306388573</v>
+        <v>24.93731375038707</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>13.53255172569197</v>
+        <v>21.74851896836587</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.77866038740859</v>
+        <v>10.01456296636933</v>
       </c>
       <c r="M12">
-        <v>14.5451560815819</v>
+        <v>14.88753860184049</v>
       </c>
       <c r="N12">
-        <v>11.2907264793469</v>
+        <v>17.60949703548171</v>
       </c>
       <c r="O12">
-        <v>16.78653656431174</v>
+        <v>21.92127880817935</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.84097525062513</v>
+        <v>16.38143727616382</v>
       </c>
       <c r="C13">
-        <v>15.07647638515513</v>
+        <v>11.28642962240497</v>
       </c>
       <c r="D13">
-        <v>4.798991398412576</v>
+        <v>5.01827516039854</v>
       </c>
       <c r="E13">
-        <v>6.859420970107983</v>
+        <v>12.05417337305319</v>
       </c>
       <c r="F13">
-        <v>22.61047419006961</v>
+        <v>24.9325026375896</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>13.53105332640845</v>
+        <v>21.75259689559633</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.771756554780334</v>
+        <v>10.01444487801886</v>
       </c>
       <c r="M13">
-        <v>14.50767748586778</v>
+        <v>14.88062371322829</v>
       </c>
       <c r="N13">
-        <v>11.29949677471388</v>
+        <v>17.61218222323984</v>
       </c>
       <c r="O13">
-        <v>16.76371377648863</v>
+        <v>21.92136796829674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.62202245954352</v>
+        <v>16.29154648791454</v>
       </c>
       <c r="C14">
-        <v>14.97384069479197</v>
+        <v>11.24220905000544</v>
       </c>
       <c r="D14">
-        <v>4.776119842212774</v>
+        <v>5.01045868099193</v>
       </c>
       <c r="E14">
-        <v>6.876181393503297</v>
+        <v>12.06046720815274</v>
       </c>
       <c r="F14">
-        <v>22.46672749030588</v>
+        <v>24.91699096351439</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>13.52665869449909</v>
+        <v>21.76601769919405</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.74928883056511</v>
+        <v>10.01409514389975</v>
       </c>
       <c r="M14">
-        <v>14.38484522433588</v>
+        <v>14.85809914748852</v>
       </c>
       <c r="N14">
-        <v>11.32818843712996</v>
+        <v>17.62098335716271</v>
       </c>
       <c r="O14">
-        <v>16.68960425668839</v>
+        <v>21.92180226460557</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.48702923897151</v>
+        <v>16.23626222024927</v>
       </c>
       <c r="C15">
-        <v>14.9106454364108</v>
+        <v>11.2150111474657</v>
       </c>
       <c r="D15">
-        <v>4.762052614773826</v>
+        <v>5.00565826315313</v>
       </c>
       <c r="E15">
-        <v>6.886489858684347</v>
+        <v>12.06434589058174</v>
       </c>
       <c r="F15">
-        <v>22.37873382644729</v>
+        <v>24.90762695309786</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>13.52434177262076</v>
+        <v>21.77433187672922</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.735563194254233</v>
+        <v>10.01390812482146</v>
       </c>
       <c r="M15">
-        <v>14.30914032718236</v>
+        <v>14.84432287560496</v>
       </c>
       <c r="N15">
-        <v>11.34583172346544</v>
+        <v>17.62640824737816</v>
       </c>
       <c r="O15">
-        <v>16.64445667729149</v>
+        <v>21.92217857017644</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.69991932233892</v>
+        <v>15.91610097727494</v>
       </c>
       <c r="C16">
-        <v>14.54349214487541</v>
+        <v>11.05746776956614</v>
       </c>
       <c r="D16">
-        <v>4.680565168042961</v>
+        <v>4.977958780304562</v>
       </c>
       <c r="E16">
-        <v>6.946210162046175</v>
+        <v>12.08693415522663</v>
       </c>
       <c r="F16">
-        <v>21.87541617775923</v>
+        <v>24.85608036381496</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>13.51668177886866</v>
+        <v>21.82340912635954</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.657476695225949</v>
+        <v>10.01325408370947</v>
       </c>
       <c r="M16">
-        <v>13.86813023931972</v>
+        <v>14.7657098942162</v>
       </c>
       <c r="N16">
-        <v>11.44798490853659</v>
+        <v>17.65801689563092</v>
       </c>
       <c r="O16">
-        <v>16.38952791291461</v>
+        <v>21.9260252458118</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.20492984911461</v>
+        <v>15.71679118586193</v>
       </c>
       <c r="C17">
-        <v>14.31381214560399</v>
+        <v>10.95934741867722</v>
       </c>
       <c r="D17">
-        <v>4.629808179130701</v>
+        <v>4.960799446192355</v>
       </c>
       <c r="E17">
-        <v>6.9834232754682</v>
+        <v>12.10111409285311</v>
       </c>
       <c r="F17">
-        <v>21.56758903356088</v>
+        <v>24.82635537334057</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>13.51685464011286</v>
+        <v>21.85479234938854</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.610092731374088</v>
+        <v>10.01322634069106</v>
       </c>
       <c r="M17">
-        <v>13.59115631026696</v>
+        <v>14.71779850351856</v>
       </c>
       <c r="N17">
-        <v>11.51157835721821</v>
+        <v>17.67787311179024</v>
       </c>
       <c r="O17">
-        <v>16.23653709437639</v>
+        <v>21.92989290939635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.91574617304068</v>
+        <v>15.6011235279056</v>
       </c>
       <c r="C18">
-        <v>14.18008434808402</v>
+        <v>10.90238202693039</v>
       </c>
       <c r="D18">
-        <v>4.600337473000544</v>
+        <v>4.950869883469347</v>
       </c>
       <c r="E18">
-        <v>7.005039095502205</v>
+        <v>12.10938885315837</v>
       </c>
       <c r="F18">
-        <v>21.39092518761514</v>
+        <v>24.80995936166982</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>13.51868885437929</v>
+        <v>21.87331127762778</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.583034236925364</v>
+        <v>10.01334793770691</v>
       </c>
       <c r="M18">
-        <v>13.4294762410082</v>
+        <v>14.69036395884104</v>
       </c>
       <c r="N18">
-        <v>11.5484928645881</v>
+        <v>17.68946513865106</v>
       </c>
       <c r="O18">
-        <v>16.14979579697785</v>
+        <v>21.93267140182984</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.8170620899937</v>
+        <v>15.56178714121127</v>
       </c>
       <c r="C19">
-        <v>14.13452901487249</v>
+        <v>10.8830048147435</v>
       </c>
       <c r="D19">
-        <v>4.590312210309739</v>
+        <v>4.947497724728854</v>
       </c>
       <c r="E19">
-        <v>7.012394217718097</v>
+        <v>12.1122109757119</v>
       </c>
       <c r="F19">
-        <v>21.33118127078631</v>
+        <v>24.80452869660941</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>13.51960256605179</v>
+        <v>21.87966179710974</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.573906712993749</v>
+        <v>10.01341276065219</v>
       </c>
       <c r="M19">
-        <v>13.37432590082738</v>
+        <v>14.68109685017626</v>
       </c>
       <c r="N19">
-        <v>11.56104914293015</v>
+        <v>17.69341943697656</v>
       </c>
       <c r="O19">
-        <v>16.12064273401217</v>
+        <v>21.93370725979202</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.25808533592879</v>
+        <v>15.73811549132935</v>
       </c>
       <c r="C20">
-        <v>14.33843010777186</v>
+        <v>10.96984754069138</v>
       </c>
       <c r="D20">
-        <v>4.635240100149811</v>
+        <v>4.962632321507067</v>
       </c>
       <c r="E20">
-        <v>6.979439952145245</v>
+        <v>12.099592320235</v>
       </c>
       <c r="F20">
-        <v>21.60031840997735</v>
+        <v>24.82944717934268</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>13.51665544049913</v>
+        <v>21.85140308483655</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.615116704839617</v>
+        <v>10.01321506419422</v>
       </c>
       <c r="M20">
-        <v>13.62088594340833</v>
+        <v>14.72288619906716</v>
       </c>
       <c r="N20">
-        <v>11.50477375994765</v>
+        <v>17.67574166489594</v>
       </c>
       <c r="O20">
-        <v>16.2526934654026</v>
+        <v>21.92942385585272</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.68651710608921</v>
+        <v>16.31799636207255</v>
       </c>
       <c r="C21">
-        <v>15.00405566897908</v>
+        <v>11.25522100729419</v>
       </c>
       <c r="D21">
-        <v>4.782849831293021</v>
+        <v>5.012757202828777</v>
       </c>
       <c r="E21">
-        <v>6.871249650487517</v>
+        <v>12.05861365447867</v>
       </c>
       <c r="F21">
-        <v>22.50893805505624</v>
+        <v>24.92151852108612</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>13.52787106319684</v>
+        <v>21.76205618432832</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.755880564742718</v>
+        <v>10.01419220197527</v>
       </c>
       <c r="M21">
-        <v>14.42102121413563</v>
+        <v>14.86471088904236</v>
       </c>
       <c r="N21">
-        <v>11.3197466392185</v>
+        <v>17.61839117873738</v>
       </c>
       <c r="O21">
-        <v>16.71132065129811</v>
+        <v>21.92165171745318</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.58070456513117</v>
+        <v>16.68707065303467</v>
       </c>
       <c r="C22">
-        <v>15.4244300476899</v>
+        <v>11.43676914436558</v>
       </c>
       <c r="D22">
-        <v>4.876750826719799</v>
+        <v>5.044956198173853</v>
       </c>
       <c r="E22">
-        <v>6.802430455114042</v>
+        <v>12.03288531370404</v>
       </c>
       <c r="F22">
-        <v>23.10536487053793</v>
+        <v>24.98784998297334</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>13.55183153752045</v>
+        <v>21.70784773429585</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.849523472576946</v>
+        <v>10.01604918593994</v>
       </c>
       <c r="M22">
-        <v>14.92304588295414</v>
+        <v>14.95834581128235</v>
       </c>
       <c r="N22">
-        <v>11.20189231438517</v>
+        <v>17.58242912699107</v>
       </c>
       <c r="O22">
-        <v>17.02211480751051</v>
+        <v>21.92150787673165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.10703764950728</v>
+        <v>16.49102901586567</v>
       </c>
       <c r="C23">
-        <v>15.20141679038965</v>
+        <v>11.34033871521429</v>
       </c>
       <c r="D23">
-        <v>4.826874094789104</v>
+        <v>5.027823542241041</v>
       </c>
       <c r="E23">
-        <v>6.838987415244489</v>
+        <v>12.04652083259587</v>
       </c>
       <c r="F23">
-        <v>22.7868419370709</v>
+        <v>24.95188865502252</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>13.53746453312451</v>
+        <v>21.73639609841308</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.799398386252922</v>
+        <v>10.01494693143508</v>
       </c>
       <c r="M23">
-        <v>14.65700805930888</v>
+        <v>14.90829195270227</v>
       </c>
       <c r="N23">
-        <v>11.2645085766586</v>
+        <v>17.60148393666327</v>
       </c>
       <c r="O23">
-        <v>16.85523248463402</v>
+        <v>21.92113299575955</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.23406809766491</v>
+        <v>15.72847813384282</v>
       </c>
       <c r="C24">
-        <v>14.32730556263405</v>
+        <v>10.96510216049138</v>
       </c>
       <c r="D24">
-        <v>4.632785230193016</v>
+        <v>4.96180387897139</v>
       </c>
       <c r="E24">
-        <v>6.981240122701355</v>
+        <v>12.10027993193449</v>
       </c>
       <c r="F24">
-        <v>21.58552048268132</v>
+        <v>24.82804721341603</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>13.51674010815066</v>
+        <v>21.85293388787325</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.612844794799829</v>
+        <v>10.01321973378572</v>
       </c>
       <c r="M24">
-        <v>13.60745279123926</v>
+        <v>14.72058570650349</v>
       </c>
       <c r="N24">
-        <v>11.50784901711007</v>
+        <v>17.67670474241867</v>
       </c>
       <c r="O24">
-        <v>16.24538538377091</v>
+        <v>21.92963418645116</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.04224839838644</v>
+        <v>14.86713266287902</v>
       </c>
       <c r="C25">
-        <v>13.32265859715698</v>
+        <v>10.54029433400187</v>
       </c>
       <c r="D25">
-        <v>4.412936094161654</v>
+        <v>4.88831454383608</v>
       </c>
       <c r="E25">
-        <v>7.142783971236945</v>
+        <v>12.16281408709211</v>
       </c>
       <c r="F25">
-        <v>20.30533589368736</v>
+        <v>24.72129841209234</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>13.56001318777461</v>
+        <v>21.99652661952783</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.419151167171101</v>
+        <v>10.01661855879593</v>
       </c>
       <c r="M25">
-        <v>12.38456541038301</v>
+        <v>14.5228951358726</v>
       </c>
       <c r="N25">
-        <v>11.78320329599098</v>
+        <v>17.76439351595167</v>
       </c>
       <c r="O25">
-        <v>15.63559170474211</v>
+        <v>21.95997336861872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
@@ -421,28 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.20422986892704</v>
+        <v>25.36187159538038</v>
       </c>
       <c r="C2">
-        <v>10.21172724742361</v>
+        <v>18.78316758016594</v>
       </c>
       <c r="D2">
-        <v>4.83238250962721</v>
+        <v>3.667102608023719</v>
       </c>
       <c r="E2">
-        <v>12.21280148691869</v>
+        <v>30.13972387202395</v>
       </c>
       <c r="F2">
-        <v>24.66609776886317</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.344005520526261</v>
+        <v>17.20286171920607</v>
       </c>
       <c r="I2">
-        <v>22.11756352582325</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.02367379382293</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.38219852680218</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.83463344637391</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>22.00045793095433</v>
+        <v>12.72255374862498</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.73990935458</v>
+        <v>23.689620243938</v>
       </c>
       <c r="C3">
-        <v>9.980055976118397</v>
+        <v>17.64466769346558</v>
       </c>
       <c r="D3">
-        <v>4.793411487157504</v>
+        <v>3.549203684935295</v>
       </c>
       <c r="E3">
-        <v>12.24915560344527</v>
+        <v>27.92499286604799</v>
       </c>
       <c r="F3">
-        <v>24.64339444581201</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7.344005520526261</v>
+        <v>16.47776860560776</v>
       </c>
       <c r="I3">
-        <v>22.20910413977147</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +486,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.03130675015695</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.29024941157946</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17.88579679501933</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>22.03916748154758</v>
+        <v>12.43142879086597</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.44848288234643</v>
+        <v>22.60492527918626</v>
       </c>
       <c r="C4">
-        <v>9.833686894173088</v>
+        <v>16.90933012325683</v>
       </c>
       <c r="D4">
-        <v>4.768982357822702</v>
+        <v>3.47515541217814</v>
       </c>
       <c r="E4">
-        <v>12.27270465952876</v>
+        <v>26.50354375359373</v>
       </c>
       <c r="F4">
-        <v>24.63673152213481</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7.344005520526261</v>
+        <v>16.05223206857244</v>
       </c>
       <c r="I4">
-        <v>22.26998999818572</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.0374033365541</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.23559042766703</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>17.91897478227963</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>22.06847598540774</v>
+        <v>12.27959786169233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.32831459669356</v>
+        <v>22.14825074560924</v>
       </c>
       <c r="C5">
-        <v>9.77305532501253</v>
+        <v>16.60059396399711</v>
       </c>
       <c r="D5">
-        <v>4.758905258728173</v>
+        <v>3.444591253825666</v>
       </c>
       <c r="E5">
-        <v>12.28261052454263</v>
+        <v>25.90840315500346</v>
       </c>
       <c r="F5">
-        <v>24.63584853381387</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7.344005520526261</v>
+        <v>15.88393292375913</v>
       </c>
       <c r="I5">
-        <v>22.2959762434817</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.04024278590899</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.21378646875387</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>17.93293948704045</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>22.081809496405</v>
+        <v>12.22427252772091</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.30828123642056</v>
+        <v>22.07153306559324</v>
       </c>
       <c r="C6">
-        <v>9.76292957508165</v>
+        <v>16.54878209790377</v>
       </c>
       <c r="D6">
-        <v>4.757224708089232</v>
+        <v>3.439493503015306</v>
       </c>
       <c r="E6">
-        <v>12.28427409769018</v>
+        <v>25.80860973672094</v>
       </c>
       <c r="F6">
-        <v>24.63581261118838</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>7.344005520526261</v>
+        <v>15.85630028810577</v>
       </c>
       <c r="I6">
-        <v>22.30036213564803</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.04073573121928</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.21019483447679</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>17.93528518519687</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>22.08410736927172</v>
+        <v>12.21547393113612</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.44686770607901</v>
+        <v>22.59882583850941</v>
       </c>
       <c r="C7">
-        <v>9.832873113424814</v>
+        <v>16.90520308125536</v>
       </c>
       <c r="D7">
-        <v>4.768846943481596</v>
+        <v>3.474744748061082</v>
       </c>
       <c r="E7">
-        <v>12.27283699957011</v>
+        <v>26.49558231965702</v>
       </c>
       <c r="F7">
-        <v>24.63671219345723</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>7.344005520526261</v>
+        <v>16.04994142332276</v>
       </c>
       <c r="I7">
-        <v>22.2703357037905</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +650,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.03744019219962</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.23529444567835</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>17.91916131450795</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>22.06865018209562</v>
+        <v>12.27882553987289</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.04555115857307</v>
+        <v>24.79724513238607</v>
       </c>
       <c r="C8">
-        <v>10.13273245453489</v>
+        <v>18.39816421105844</v>
       </c>
       <c r="D8">
-        <v>4.819051554051287</v>
+        <v>3.626810743639947</v>
       </c>
       <c r="E8">
-        <v>12.22508208881206</v>
+        <v>29.38861838723016</v>
       </c>
       <c r="F8">
-        <v>24.65676121854692</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>7.344005520526261</v>
+        <v>16.94886448994896</v>
       </c>
       <c r="I8">
-        <v>22.14815432106368</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.02601333122902</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>14.3501321853103</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>17.85190913603159</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>22.01265323368993</v>
+        <v>12.6164650506827</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.16207796500661</v>
+        <v>28.6533867078174</v>
       </c>
       <c r="C9">
-        <v>10.68594802290962</v>
+        <v>21.03733218039096</v>
       </c>
       <c r="D9">
-        <v>4.913361899823479</v>
+        <v>3.910833501597913</v>
       </c>
       <c r="E9">
-        <v>12.14113898361741</v>
+        <v>34.59291799026477</v>
       </c>
       <c r="F9">
-        <v>24.75364078588575</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>7.344005520526261</v>
+        <v>18.86098593319473</v>
       </c>
       <c r="I9">
-        <v>21.9457738828831</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.01476814830285</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.58878220473859</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>17.73397659386121</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>21.94692975560497</v>
+        <v>13.50010542385733</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.93870137602903</v>
+        <v>31.21663200655026</v>
       </c>
       <c r="C10">
-        <v>11.06859139950418</v>
+        <v>22.80155215208468</v>
       </c>
       <c r="D10">
-        <v>4.979908562590854</v>
+        <v>4.109793125864451</v>
       </c>
       <c r="E10">
-        <v>12.08533221235184</v>
+        <v>38.16138516236104</v>
       </c>
       <c r="F10">
-        <v>24.859566912243</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>7.344005520526261</v>
+        <v>20.44542078417891</v>
       </c>
       <c r="I10">
-        <v>21.81989157081329</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.01327586716003</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.77119305268245</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>17.65577435098551</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>21.92565899360904</v>
+        <v>14.31427006950566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.28098764165287</v>
+        <v>32.32603306422287</v>
       </c>
       <c r="C11">
-        <v>11.23701457216891</v>
+        <v>23.56688215889526</v>
       </c>
       <c r="D11">
-        <v>5.00954143906003</v>
+        <v>4.198057044315045</v>
       </c>
       <c r="E11">
-        <v>12.06120753507894</v>
+        <v>39.73728185718598</v>
       </c>
       <c r="F11">
-        <v>24.91519212377981</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>7.344005520526261</v>
+        <v>21.29484737048217</v>
       </c>
       <c r="I11">
-        <v>21.76760207721439</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.01405776598019</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.85546346271525</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>17.62201874855022</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>21.92186768430121</v>
+        <v>14.96079253444845</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.40891090955342</v>
+        <v>32.73816752579625</v>
       </c>
       <c r="C12">
-        <v>11.29994440079852</v>
+        <v>23.85142181689536</v>
       </c>
       <c r="D12">
-        <v>5.020666903479886</v>
+        <v>4.231151705066806</v>
       </c>
       <c r="E12">
-        <v>12.05225285282173</v>
+        <v>40.32797812293973</v>
       </c>
       <c r="F12">
-        <v>24.93731375038707</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>7.344005520526261</v>
+        <v>21.6160061499828</v>
       </c>
       <c r="I12">
-        <v>21.74851896836587</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +855,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.01456296636933</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.88753860184049</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>17.60949703548171</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>21.92127880817935</v>
+        <v>15.20565789917917</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.38143727616382</v>
+        <v>32.64975859882043</v>
       </c>
       <c r="C13">
-        <v>11.28642962240497</v>
+        <v>23.79037422394658</v>
       </c>
       <c r="D13">
-        <v>5.01827516039854</v>
+        <v>4.224038861108671</v>
       </c>
       <c r="E13">
-        <v>12.05417337305319</v>
+        <v>40.2010174971775</v>
       </c>
       <c r="F13">
-        <v>24.9325026375896</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>7.344005520526261</v>
+        <v>21.54685861497861</v>
       </c>
       <c r="I13">
-        <v>21.75259689559633</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.01444487801886</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.88062371322829</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>17.61218222323984</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>21.92136796829674</v>
+        <v>15.15291748331609</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.29154648791454</v>
+        <v>32.36009832691864</v>
       </c>
       <c r="C14">
-        <v>11.24220905000544</v>
+        <v>23.59039659178793</v>
       </c>
       <c r="D14">
-        <v>5.01045868099193</v>
+        <v>4.200786375122458</v>
       </c>
       <c r="E14">
-        <v>12.06046720815274</v>
+        <v>39.78599556063128</v>
       </c>
       <c r="F14">
-        <v>24.91699096351439</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>7.344005520526261</v>
+        <v>21.32127844886122</v>
       </c>
       <c r="I14">
-        <v>21.76601769919405</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.01409514389975</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.85809914748852</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>17.62098335716271</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>21.92180226460557</v>
+        <v>14.98093606777856</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.23626222024927</v>
+        <v>32.18164032250442</v>
       </c>
       <c r="C15">
-        <v>11.2150111474657</v>
+        <v>23.46722032222328</v>
       </c>
       <c r="D15">
-        <v>5.00565826315313</v>
+        <v>4.186500604036341</v>
       </c>
       <c r="E15">
-        <v>12.06434589058174</v>
+        <v>39.53101752026208</v>
       </c>
       <c r="F15">
-        <v>24.90762695309786</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>7.344005520526261</v>
+        <v>21.18304334203111</v>
       </c>
       <c r="I15">
-        <v>21.77433187672922</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.01390812482146</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.84432287560496</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>17.62640824737816</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>21.92217857017644</v>
+        <v>14.87560222826824</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.91610097727494</v>
+        <v>31.14300474444719</v>
       </c>
       <c r="C16">
-        <v>11.05746776956614</v>
+        <v>22.75079327340479</v>
       </c>
       <c r="D16">
-        <v>4.977958780304562</v>
+        <v>4.103979078266737</v>
       </c>
       <c r="E16">
-        <v>12.08693415522663</v>
+        <v>38.05750480030031</v>
       </c>
       <c r="F16">
-        <v>24.85608036381496</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>7.344005520526261</v>
+        <v>20.38983120958807</v>
       </c>
       <c r="I16">
-        <v>21.82340912635954</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.01325408370947</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.7657098942162</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>17.65801689563092</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>21.9260252458118</v>
+        <v>14.27201665916554</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.71679118586193</v>
+        <v>30.49144733876658</v>
       </c>
       <c r="C17">
-        <v>10.95934741867722</v>
+        <v>22.30180444326482</v>
       </c>
       <c r="D17">
-        <v>4.960799446192355</v>
+        <v>4.052774197851628</v>
       </c>
       <c r="E17">
-        <v>12.10111409285311</v>
+        <v>37.14191444472398</v>
       </c>
       <c r="F17">
-        <v>24.82635537334057</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>7.344005520526261</v>
+        <v>19.91176280583492</v>
       </c>
       <c r="I17">
-        <v>21.85479234938854</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.01322634069106</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.71779850351856</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>17.67787311179024</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>21.92989290939635</v>
+        <v>14.05212850216342</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.6011235279056</v>
+        <v>30.11134693216894</v>
       </c>
       <c r="C18">
-        <v>10.90238202693039</v>
+        <v>22.04004847037247</v>
       </c>
       <c r="D18">
-        <v>4.950869883469347</v>
+        <v>4.023111407783667</v>
       </c>
       <c r="E18">
-        <v>12.10938885315837</v>
+        <v>36.61077703905608</v>
       </c>
       <c r="F18">
-        <v>24.80995936166982</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>7.344005520526261</v>
+        <v>19.68744503489815</v>
       </c>
       <c r="I18">
-        <v>21.87331127762778</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.01334793770691</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.69036395884104</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>17.68946513865106</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>21.93267140182984</v>
+        <v>13.93110318446045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.56178714121127</v>
+        <v>29.98172905575069</v>
       </c>
       <c r="C19">
-        <v>10.8830048147435</v>
+        <v>21.95081757306328</v>
       </c>
       <c r="D19">
-        <v>4.947497724728854</v>
+        <v>4.01303210590007</v>
       </c>
       <c r="E19">
-        <v>12.1122109757119</v>
+        <v>36.43014634725398</v>
       </c>
       <c r="F19">
-        <v>24.80452869660941</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>7.344005520526261</v>
+        <v>19.6117782739293</v>
       </c>
       <c r="I19">
-        <v>21.87966179710974</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.01341276065219</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.68109685017626</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>17.69341943697656</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>21.93370725979202</v>
+        <v>13.89064877444195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.73811549132935</v>
+        <v>30.56135840668509</v>
       </c>
       <c r="C20">
-        <v>10.96984754069138</v>
+        <v>22.34996278246549</v>
       </c>
       <c r="D20">
-        <v>4.962632321507067</v>
+        <v>4.058246952476309</v>
       </c>
       <c r="E20">
-        <v>12.099592320235</v>
+        <v>37.23984263539565</v>
       </c>
       <c r="F20">
-        <v>24.82944717934268</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>7.344005520526261</v>
+        <v>19.95414440513955</v>
       </c>
       <c r="I20">
-        <v>21.85140308483655</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.01321506419422</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.72288619906716</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>17.67574166489594</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>21.92942385585272</v>
+        <v>14.07477657304352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.31799636207255</v>
+        <v>32.44539345561697</v>
       </c>
       <c r="C21">
-        <v>11.25522100729419</v>
+        <v>23.64927728798796</v>
       </c>
       <c r="D21">
-        <v>5.012757202828777</v>
+        <v>4.207625149968112</v>
       </c>
       <c r="E21">
-        <v>12.05861365447867</v>
+        <v>39.90805550900857</v>
       </c>
       <c r="F21">
-        <v>24.92151852108612</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>7.344005520526261</v>
+        <v>21.38754917194911</v>
       </c>
       <c r="I21">
-        <v>21.76205618432832</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.01419220197527</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.86471088904236</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>17.61839117873738</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>21.92165171745318</v>
+        <v>15.03144886041105</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.68707065303467</v>
+        <v>33.63034798142267</v>
       </c>
       <c r="C22">
-        <v>11.43676914436558</v>
+        <v>24.46776282817499</v>
       </c>
       <c r="D22">
-        <v>5.044956198173853</v>
+        <v>4.303335265980414</v>
       </c>
       <c r="E22">
-        <v>12.03288531370404</v>
+        <v>41.6169878629559</v>
       </c>
       <c r="F22">
-        <v>24.98784998297334</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>7.344005520526261</v>
+        <v>22.32154938187173</v>
       </c>
       <c r="I22">
-        <v>21.70784773429585</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.01604918593994</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>14.95834581128235</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>17.58242912699107</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>21.92150787673165</v>
+        <v>15.74439270330405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.49102901586567</v>
+        <v>33.00209666182349</v>
       </c>
       <c r="C23">
-        <v>11.34033871521429</v>
+        <v>24.03369893303752</v>
       </c>
       <c r="D23">
-        <v>5.027823542241041</v>
+        <v>4.252429302636425</v>
       </c>
       <c r="E23">
-        <v>12.04652083259587</v>
+        <v>40.70781262930217</v>
       </c>
       <c r="F23">
-        <v>24.95188865502252</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>7.344005520526261</v>
+        <v>21.82325798658903</v>
       </c>
       <c r="I23">
-        <v>21.73639609841308</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.01494693143508</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.90829195270227</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>17.60148393666327</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>21.92113299575955</v>
+        <v>15.36379688885599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.72847813384282</v>
+        <v>30.52976879234458</v>
       </c>
       <c r="C24">
-        <v>10.96510216049138</v>
+        <v>22.32820169814319</v>
       </c>
       <c r="D24">
-        <v>4.96180387897139</v>
+        <v>4.055773418604783</v>
       </c>
       <c r="E24">
-        <v>12.10027993193449</v>
+        <v>37.19558415843314</v>
       </c>
       <c r="F24">
-        <v>24.82804721341603</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>7.344005520526261</v>
+        <v>19.93457834027497</v>
       </c>
       <c r="I24">
-        <v>21.85293388787325</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.01321973378572</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.72058570650349</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>17.67670474241867</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>21.92963418645116</v>
+        <v>14.0645280278987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.86713266287902</v>
+        <v>27.65818390843033</v>
       </c>
       <c r="C25">
-        <v>10.54029433400187</v>
+        <v>20.35422568467478</v>
       </c>
       <c r="D25">
-        <v>4.88831454383608</v>
+        <v>3.835641781478925</v>
       </c>
       <c r="E25">
-        <v>12.16281408709211</v>
+        <v>33.23225014274483</v>
       </c>
       <c r="F25">
-        <v>24.72129841209234</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>7.344005520526261</v>
+        <v>18.32857825606563</v>
       </c>
       <c r="I25">
-        <v>21.99652661952783</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.01661855879593</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>14.5228951358726</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>17.76439351595167</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>21.95997336861872</v>
+        <v>13.23635424948305</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,31 +415,37 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.36187159538038</v>
+        <v>24.52631444203648</v>
       </c>
       <c r="C2">
-        <v>18.78316758016594</v>
+        <v>19.04901804811669</v>
       </c>
       <c r="D2">
-        <v>3.667102608023719</v>
+        <v>4.288684017742457</v>
       </c>
       <c r="E2">
-        <v>30.13972387202395</v>
+        <v>29.2869706272671</v>
       </c>
       <c r="F2">
-        <v>17.20286171920607</v>
+        <v>18.46192158008147</v>
+      </c>
+      <c r="H2">
+        <v>3.205158693868897</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>3.20525599313035</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,33 +460,39 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.72255374862498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.41630593039575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.689620243938</v>
+        <v>22.91929028977459</v>
       </c>
       <c r="C3">
-        <v>17.64466769346558</v>
+        <v>17.94061183013837</v>
       </c>
       <c r="D3">
-        <v>3.549203684935295</v>
+        <v>4.15026255036736</v>
       </c>
       <c r="E3">
-        <v>27.92499286604799</v>
+        <v>27.39456778111133</v>
       </c>
       <c r="F3">
-        <v>16.47776860560776</v>
+        <v>17.86194650852501</v>
+      </c>
+      <c r="H3">
+        <v>2.946021979672167</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>3.009413731153047</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -495,33 +507,39 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.43142879086597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.17742455656328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.60492527918626</v>
+        <v>21.87328337603005</v>
       </c>
       <c r="C4">
-        <v>16.90933012325683</v>
+        <v>17.23026101314926</v>
       </c>
       <c r="D4">
-        <v>3.47515541217814</v>
+        <v>4.062780859921553</v>
       </c>
       <c r="E4">
-        <v>26.50354375359373</v>
+        <v>26.16811167537038</v>
       </c>
       <c r="F4">
-        <v>16.05223206857244</v>
+        <v>17.4957900591206</v>
+      </c>
+      <c r="H4">
+        <v>2.78160668458218</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>2.886299199571967</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -536,33 +554,39 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.27959786169233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.03809575590276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.14825074560924</v>
+        <v>21.43188166716974</v>
       </c>
       <c r="C5">
-        <v>16.60059396399711</v>
+        <v>16.94920400894058</v>
       </c>
       <c r="D5">
-        <v>3.444591253825666</v>
+        <v>4.028706384070023</v>
       </c>
       <c r="E5">
-        <v>25.90840315500346</v>
+        <v>25.65183158974289</v>
       </c>
       <c r="F5">
-        <v>15.88393292375913</v>
+        <v>17.33325217044634</v>
+      </c>
+      <c r="H5">
+        <v>2.713101249232736</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>2.835859332754361</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -577,33 +601,39 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.22427252772091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.97213157276983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.07153306559324</v>
+        <v>21.35745317030847</v>
       </c>
       <c r="C6">
-        <v>16.54878209790377</v>
+        <v>16.92142796309843</v>
       </c>
       <c r="D6">
-        <v>3.439493503015306</v>
+        <v>4.025682037953141</v>
       </c>
       <c r="E6">
-        <v>25.80860973672094</v>
+        <v>25.56483416297804</v>
       </c>
       <c r="F6">
-        <v>15.85630028810577</v>
+        <v>17.28911852458194</v>
+      </c>
+      <c r="H6">
+        <v>2.701467989658521</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>2.828207529254503</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -618,33 +648,39 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.21547393113612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.94783521824851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.59882583850941</v>
+        <v>21.86678151261478</v>
       </c>
       <c r="C7">
-        <v>16.90520308125536</v>
+        <v>17.2782544451979</v>
       </c>
       <c r="D7">
-        <v>3.474744748061082</v>
+        <v>4.069565799390239</v>
       </c>
       <c r="E7">
-        <v>26.49558231965702</v>
+        <v>26.16045078440463</v>
       </c>
       <c r="F7">
-        <v>16.04994142332276</v>
+        <v>17.44715002475733</v>
+      </c>
+      <c r="H7">
+        <v>2.780220371406649</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>2.887359795471857</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -659,33 +695,39 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.27882553987289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.0006616968689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79724513238607</v>
+        <v>23.98374922097493</v>
       </c>
       <c r="C8">
-        <v>18.39816421105844</v>
+        <v>18.73708492387128</v>
       </c>
       <c r="D8">
-        <v>3.626810743639947</v>
+        <v>4.250852173765058</v>
       </c>
       <c r="E8">
-        <v>29.38861838723016</v>
+        <v>28.64691035016888</v>
       </c>
       <c r="F8">
-        <v>16.94886448994896</v>
+        <v>18.19570782938383</v>
+      </c>
+      <c r="H8">
+        <v>3.116316921085846</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>3.140047652784549</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -700,33 +742,39 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.6164650506827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.28511541946979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.6533867078174</v>
+        <v>27.66824537335466</v>
       </c>
       <c r="C9">
-        <v>21.03733218039096</v>
+        <v>21.27434326780041</v>
       </c>
       <c r="D9">
-        <v>3.910833501597913</v>
+        <v>4.573118291163154</v>
       </c>
       <c r="E9">
-        <v>34.59291799026477</v>
+        <v>33.01452523321491</v>
       </c>
       <c r="F9">
-        <v>18.86098593319473</v>
+        <v>19.75299864164758</v>
+      </c>
+      <c r="H9">
+        <v>3.735367590512782</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>3.611985141512975</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -741,33 +789,39 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.50010542385733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.9659930966735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.21663200655026</v>
+        <v>30.08969881375781</v>
       </c>
       <c r="C10">
-        <v>22.80155215208468</v>
+        <v>23.00217623967392</v>
       </c>
       <c r="D10">
-        <v>4.109793125864451</v>
+        <v>4.835908615770593</v>
       </c>
       <c r="E10">
-        <v>38.16138516236104</v>
+        <v>35.03852183181854</v>
       </c>
       <c r="F10">
-        <v>20.44542078417891</v>
+        <v>20.68522245521129</v>
+      </c>
+      <c r="H10">
+        <v>4.129536869478232</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>3.939775442244501</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -782,33 +836,39 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.31427006950566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.33064473205666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.32603306422287</v>
+        <v>31.09754528126896</v>
       </c>
       <c r="C11">
-        <v>23.56688215889526</v>
+        <v>23.7509481832237</v>
       </c>
       <c r="D11">
-        <v>4.198057044315045</v>
+        <v>5.285367748218243</v>
       </c>
       <c r="E11">
-        <v>39.73728185718598</v>
+        <v>28.44207018043513</v>
       </c>
       <c r="F11">
-        <v>21.29484737048217</v>
+        <v>19.41062700068129</v>
+      </c>
+      <c r="H11">
+        <v>4.492686363854161</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>4.026397823387395</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -823,33 +883,39 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.96079253444845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.10346184430302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.73816752579625</v>
+        <v>31.46003994495555</v>
       </c>
       <c r="C12">
-        <v>23.85142181689536</v>
+        <v>23.97306138816726</v>
       </c>
       <c r="D12">
-        <v>4.231151705066806</v>
+        <v>5.611338372245933</v>
       </c>
       <c r="E12">
-        <v>40.32797812293973</v>
+        <v>22.49534382238961</v>
       </c>
       <c r="F12">
-        <v>21.6160061499828</v>
+        <v>18.18018490245333</v>
+      </c>
+      <c r="H12">
+        <v>5.301114636066927</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>4.036352383828929</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -864,33 +930,39 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.20565789917917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.03009914932889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.64975859882043</v>
+        <v>31.36001126536393</v>
       </c>
       <c r="C13">
-        <v>23.79037422394658</v>
+        <v>23.87246084525962</v>
       </c>
       <c r="D13">
-        <v>4.224038861108671</v>
+        <v>5.875420566203079</v>
       </c>
       <c r="E13">
-        <v>40.2010174971775</v>
+        <v>16.57826779130319</v>
       </c>
       <c r="F13">
-        <v>21.54685861497861</v>
+        <v>16.81684718730127</v>
+      </c>
+      <c r="H13">
+        <v>6.321874535282032</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>3.990327379479631</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -905,33 +977,39 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.15291748331609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.94702447354848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.36009832691864</v>
+        <v>31.07990833678944</v>
       </c>
       <c r="C14">
-        <v>23.59039659178793</v>
+        <v>23.66791434137551</v>
       </c>
       <c r="D14">
-        <v>4.200786375122458</v>
+        <v>6.037018980021518</v>
       </c>
       <c r="E14">
-        <v>39.78599556063128</v>
+        <v>12.51407151035088</v>
       </c>
       <c r="F14">
-        <v>21.32127844886122</v>
+        <v>15.77948081056859</v>
+      </c>
+      <c r="H14">
+        <v>7.120997004698546</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>3.934376082290615</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -946,33 +1024,39 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.98093606777856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.17789104184732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.18164032250442</v>
+        <v>30.91110089188882</v>
       </c>
       <c r="C15">
-        <v>23.46722032222328</v>
+        <v>23.56401353955093</v>
       </c>
       <c r="D15">
-        <v>4.186500604036341</v>
+        <v>6.065376218933928</v>
       </c>
       <c r="E15">
-        <v>39.53101752026208</v>
+        <v>11.53784735484873</v>
       </c>
       <c r="F15">
-        <v>21.18304334203111</v>
+        <v>15.48355151738994</v>
+      </c>
+      <c r="H15">
+        <v>7.304739452644291</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>3.908720832596522</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -987,33 +1071,39 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.87560222826824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.97941070898476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.14300474444719</v>
+        <v>29.93972865017516</v>
       </c>
       <c r="C16">
-        <v>22.75079327340479</v>
+        <v>22.89778659810451</v>
       </c>
       <c r="D16">
-        <v>4.103979078266737</v>
+        <v>5.91695598565147</v>
       </c>
       <c r="E16">
-        <v>38.05750480030031</v>
+        <v>11.40079220748174</v>
       </c>
       <c r="F16">
-        <v>20.38983120958807</v>
+        <v>15.26308924785205</v>
+      </c>
+      <c r="H16">
+        <v>7.023652367670555</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>3.780498500792048</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1028,33 +1118,39 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.27201665916554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.00000258495085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.49144733876658</v>
+        <v>29.33335524780634</v>
       </c>
       <c r="C17">
-        <v>22.30180444326482</v>
+        <v>22.49134673905846</v>
       </c>
       <c r="D17">
-        <v>4.052774197851628</v>
+        <v>5.712032904846049</v>
       </c>
       <c r="E17">
-        <v>37.14191444472398</v>
+        <v>13.49393089274596</v>
       </c>
       <c r="F17">
-        <v>19.91176280583492</v>
+        <v>15.66491031130633</v>
+      </c>
+      <c r="H17">
+        <v>6.331781949282495</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>3.711235346739993</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1069,33 +1165,39 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.05212850216342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.42603845118459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.11134693216894</v>
+        <v>28.98815594547917</v>
       </c>
       <c r="C18">
-        <v>22.04004847037247</v>
+        <v>22.23687993014695</v>
       </c>
       <c r="D18">
-        <v>4.023111407783667</v>
+        <v>5.433055525278049</v>
       </c>
       <c r="E18">
-        <v>36.61077703905608</v>
+        <v>18.04966754262918</v>
       </c>
       <c r="F18">
-        <v>19.68744503489815</v>
+        <v>16.67421346875417</v>
+      </c>
+      <c r="H18">
+        <v>5.295175949569644</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>3.686294538833137</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1110,33 +1212,39 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.93110318446045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.27652785648718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.98172905575069</v>
+        <v>28.88555310593026</v>
       </c>
       <c r="C19">
-        <v>21.95081757306328</v>
+        <v>22.21234335816534</v>
       </c>
       <c r="D19">
-        <v>4.01303210590007</v>
+        <v>5.137946159416773</v>
       </c>
       <c r="E19">
-        <v>36.43014634725398</v>
+        <v>24.32584718494821</v>
       </c>
       <c r="F19">
-        <v>19.6117782739293</v>
+        <v>18.01095879176808</v>
+      </c>
+      <c r="H19">
+        <v>4.315711853095834</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>3.710300522297746</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1151,33 +1259,39 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.89064877444195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.35529296422902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.56135840668509</v>
+        <v>29.47103432876578</v>
       </c>
       <c r="C20">
-        <v>22.34996278246549</v>
+        <v>22.68727170978404</v>
       </c>
       <c r="D20">
-        <v>4.058246952476309</v>
+        <v>4.790412143687933</v>
       </c>
       <c r="E20">
-        <v>37.23984263539565</v>
+        <v>34.47749105733784</v>
       </c>
       <c r="F20">
-        <v>19.95414440513955</v>
+        <v>20.30784993647318</v>
+      </c>
+      <c r="H20">
+        <v>4.023774908018307</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>3.859958237290177</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1192,33 +1306,39 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.07477657304352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.12155973123076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.44539345561697</v>
+        <v>31.24823133926937</v>
       </c>
       <c r="C21">
-        <v>23.64927728798796</v>
+        <v>23.94496119903691</v>
       </c>
       <c r="D21">
-        <v>4.207625149968112</v>
+        <v>4.926019927894772</v>
       </c>
       <c r="E21">
-        <v>39.90805550900857</v>
+        <v>37.30559408676149</v>
       </c>
       <c r="F21">
-        <v>21.38754917194911</v>
+        <v>21.34808689034557</v>
+      </c>
+      <c r="H21">
+        <v>4.378860539700025</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>4.119120617262744</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1233,33 +1353,39 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.03144886041105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.68174502682728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.63034798142267</v>
+        <v>32.35835999905605</v>
       </c>
       <c r="C22">
-        <v>24.46776282817499</v>
+        <v>24.68646706035022</v>
       </c>
       <c r="D22">
-        <v>4.303335265980414</v>
+        <v>5.022453335923683</v>
       </c>
       <c r="E22">
-        <v>41.6169878629559</v>
+        <v>38.645784568976</v>
       </c>
       <c r="F22">
-        <v>22.32154938187173</v>
+        <v>21.97536135577538</v>
+      </c>
+      <c r="H22">
+        <v>4.5880490719886</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>4.280603779598847</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1274,33 +1400,39 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.74439270330405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.01548221594701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.00209666182349</v>
+        <v>31.7709066848655</v>
       </c>
       <c r="C23">
-        <v>24.03369893303752</v>
+        <v>24.24709859273765</v>
       </c>
       <c r="D23">
-        <v>4.252429302636425</v>
+        <v>4.963622951361446</v>
       </c>
       <c r="E23">
-        <v>40.70781262930217</v>
+        <v>37.93605119404339</v>
       </c>
       <c r="F23">
-        <v>21.82325798658903</v>
+        <v>21.68523465542879</v>
+      </c>
+      <c r="H23">
+        <v>4.477121239092268</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>4.192357459237603</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1315,33 +1447,39 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.36379688885599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.87452321876289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.52976879234458</v>
+        <v>29.44524700556518</v>
       </c>
       <c r="C24">
-        <v>22.32820169814319</v>
+        <v>22.59821958381127</v>
       </c>
       <c r="D24">
-        <v>4.055773418604783</v>
+        <v>4.747015846311729</v>
       </c>
       <c r="E24">
-        <v>37.19558415843314</v>
+        <v>35.13865545386768</v>
       </c>
       <c r="F24">
-        <v>19.93457834027497</v>
+        <v>20.51479855174997</v>
+      </c>
+      <c r="H24">
+        <v>4.049291792696274</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>3.857953781632018</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1356,33 +1494,39 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.0645280278987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.29740027146494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.65818390843033</v>
+        <v>26.72027819732691</v>
       </c>
       <c r="C25">
-        <v>20.35422568467478</v>
+        <v>20.69398490198719</v>
       </c>
       <c r="D25">
-        <v>3.835641781478925</v>
+        <v>4.500641749950556</v>
       </c>
       <c r="E25">
-        <v>33.23225014274483</v>
+        <v>31.88598415281427</v>
       </c>
       <c r="F25">
-        <v>18.32857825606563</v>
+        <v>19.25577469052761</v>
+      </c>
+      <c r="H25">
+        <v>3.57136126208584</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>3.489440049676813</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1397,7 +1541,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.23635424948305</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.71302920921626</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
@@ -427,46 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.52631444203648</v>
+        <v>12.55417378794944</v>
       </c>
       <c r="C2">
-        <v>19.04901804811669</v>
+        <v>7.107745258394053</v>
       </c>
       <c r="D2">
-        <v>4.288684017742457</v>
+        <v>4.954949426048415</v>
       </c>
       <c r="E2">
-        <v>29.2869706272671</v>
+        <v>7.375301174842367</v>
       </c>
       <c r="F2">
-        <v>18.46192158008147</v>
+        <v>25.14060664150661</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.205158693868897</v>
+        <v>3.793716826257285</v>
       </c>
       <c r="I2">
-        <v>3.20525599313035</v>
+        <v>4.313184277558927</v>
+      </c>
+      <c r="J2">
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.52929954462233</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.993327751206099</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.73305992979829</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.324085418560286</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>9.548466807529088</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.41630593039575</v>
+        <v>19.10271711392604</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -474,46 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.91929028977459</v>
+        <v>11.73387998237361</v>
       </c>
       <c r="C3">
-        <v>17.94061183013837</v>
+        <v>6.876544480545292</v>
       </c>
       <c r="D3">
-        <v>4.15026255036736</v>
+        <v>4.783273884031394</v>
       </c>
       <c r="E3">
-        <v>27.39456778111133</v>
+        <v>7.274908603713707</v>
       </c>
       <c r="F3">
-        <v>17.86194650852501</v>
+        <v>24.99396959955318</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.946021979672167</v>
+        <v>3.982551020108033</v>
       </c>
       <c r="I3">
-        <v>3.009413731153047</v>
+        <v>4.463523741918014</v>
+      </c>
+      <c r="J3">
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.59558688050084</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.96178347372646</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.14041427821327</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.193385441098139</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.19223243323809</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.17742455656328</v>
+        <v>19.11055675299681</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -521,46 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.87328337603005</v>
+        <v>11.19863523783709</v>
       </c>
       <c r="C4">
-        <v>17.23026101314926</v>
+        <v>6.731347330218459</v>
       </c>
       <c r="D4">
-        <v>4.062780859921553</v>
+        <v>4.675760252695765</v>
       </c>
       <c r="E4">
-        <v>26.16811167537038</v>
+        <v>7.211811077695258</v>
       </c>
       <c r="F4">
-        <v>17.4957900591206</v>
+        <v>24.91009986908023</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.78160668458218</v>
+        <v>4.102838123712686</v>
       </c>
       <c r="I4">
-        <v>2.886299199571967</v>
+        <v>4.559896694139598</v>
+      </c>
+      <c r="J4">
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.63952607937159</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.941488826190406</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.758049892784443</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.112529093527351</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>8.96723759143487</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.03809575590276</v>
+        <v>19.12042970713275</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -568,46 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.43188166716974</v>
+        <v>10.97655228318597</v>
       </c>
       <c r="C5">
-        <v>16.94920400894058</v>
+        <v>6.675846332497862</v>
       </c>
       <c r="D5">
-        <v>4.028706384070023</v>
+        <v>4.632572711992714</v>
       </c>
       <c r="E5">
-        <v>25.65183158974289</v>
+        <v>7.184872934079014</v>
       </c>
       <c r="F5">
-        <v>17.33325217044634</v>
+        <v>24.86940736779328</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.713101249232736</v>
+        <v>4.153275638880205</v>
       </c>
       <c r="I5">
-        <v>2.835859332754361</v>
+        <v>4.602501158099312</v>
+      </c>
+      <c r="J5">
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.65250306892706</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.932546698074443</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.599097954492974</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.080711387048089</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>8.874523884662183</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.97213157276983</v>
+        <v>19.11992186391201</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -615,46 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.35745317030847</v>
+        <v>10.93716052176938</v>
       </c>
       <c r="C6">
-        <v>16.92142796309843</v>
+        <v>6.672065265874346</v>
       </c>
       <c r="D6">
-        <v>4.025682037953141</v>
+        <v>4.62671849511989</v>
       </c>
       <c r="E6">
-        <v>25.56483416297804</v>
+        <v>7.179317592399487</v>
       </c>
       <c r="F6">
-        <v>17.28911852458194</v>
+        <v>24.85288976684437</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2.701467989658521</v>
+        <v>4.16210121534563</v>
       </c>
       <c r="I6">
-        <v>2.828207529254503</v>
+        <v>4.612569941680051</v>
+      </c>
+      <c r="J6">
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.64770688090177</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.930514772000388</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.574196448054119</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.076961067319625</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8.859577087866565</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.94783521824851</v>
+        <v>19.11285174996479</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -662,46 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.86678151261478</v>
+        <v>11.18858667659944</v>
       </c>
       <c r="C7">
-        <v>17.2782544451979</v>
+        <v>6.745448520504195</v>
       </c>
       <c r="D7">
-        <v>4.069565799390239</v>
+        <v>4.678803567848899</v>
       </c>
       <c r="E7">
-        <v>26.16045078440463</v>
+        <v>7.208578845651652</v>
       </c>
       <c r="F7">
-        <v>17.44715002475733</v>
+        <v>24.88274060500341</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2.780220371406649</v>
+        <v>4.104541044130533</v>
       </c>
       <c r="I7">
-        <v>2.887359795471857</v>
+        <v>4.56821784834304</v>
+      </c>
+      <c r="J7">
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.62062320953746</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.939934731007279</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.760667963348348</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.116275844712284</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>8.967421142237377</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.0006616968689</v>
+        <v>19.10118779169014</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -709,46 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.98374922097493</v>
+        <v>12.26932579603854</v>
       </c>
       <c r="C8">
-        <v>18.73708492387128</v>
+        <v>7.047842521217975</v>
       </c>
       <c r="D8">
-        <v>4.250852173765058</v>
+        <v>4.900811965224364</v>
       </c>
       <c r="E8">
-        <v>28.64691035016888</v>
+        <v>7.337315597640674</v>
       </c>
       <c r="F8">
-        <v>18.19570782938383</v>
+        <v>25.05382367452751</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3.116316921085846</v>
+        <v>3.859207679878188</v>
       </c>
       <c r="I8">
-        <v>3.140047652784549</v>
+        <v>4.373953509657684</v>
+      </c>
+      <c r="J8">
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.52644433553998</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.980834289606944</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.53850665756945</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.284554585893996</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>9.42877055375083</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.28511541946979</v>
+        <v>19.07916430862167</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -756,46 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.66824537335466</v>
+        <v>14.1503979539784</v>
       </c>
       <c r="C9">
-        <v>21.27434326780041</v>
+        <v>7.588820660330501</v>
       </c>
       <c r="D9">
-        <v>4.573118291163154</v>
+        <v>5.311171817954766</v>
       </c>
       <c r="E9">
-        <v>33.01452523321491</v>
+        <v>7.582780760298931</v>
       </c>
       <c r="F9">
-        <v>19.75299864164758</v>
+        <v>25.48553143729028</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3.735367590512782</v>
+        <v>3.410260842059372</v>
       </c>
       <c r="I9">
-        <v>3.611985141512975</v>
+        <v>4.012174383039591</v>
+      </c>
+      <c r="J9">
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.40188977867361</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.056196896649164</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.90724297847367</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.601362365684847</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10.27709685807912</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.9659930966735</v>
+        <v>19.11136961751946</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -803,46 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.08969881375781</v>
+        <v>15.37589204112835</v>
       </c>
       <c r="C10">
-        <v>23.00217623967392</v>
+        <v>8.000628033423405</v>
       </c>
       <c r="D10">
-        <v>4.835908615770593</v>
+        <v>5.57219997998118</v>
       </c>
       <c r="E10">
-        <v>35.03852183181854</v>
+        <v>7.692686691058285</v>
       </c>
       <c r="F10">
-        <v>20.68522245521129</v>
+        <v>25.68135194812274</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>4.129536869478232</v>
+        <v>3.124414113841304</v>
       </c>
       <c r="I10">
-        <v>3.939775442244501</v>
+        <v>3.774334580297831</v>
+      </c>
+      <c r="J10">
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.24243910750795</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.094458408414714</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.83304867705525</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.771629503265272</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10.81856453860499</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.33064473205666</v>
+        <v>19.06648657162475</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -850,46 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.09754528126896</v>
+        <v>15.86384845949349</v>
       </c>
       <c r="C11">
-        <v>23.7509481832237</v>
+        <v>8.430239842875332</v>
       </c>
       <c r="D11">
-        <v>5.285367748218243</v>
+        <v>5.451174545603521</v>
       </c>
       <c r="E11">
-        <v>28.44207018043513</v>
+        <v>7.264448956287217</v>
       </c>
       <c r="F11">
-        <v>19.41062700068129</v>
+        <v>24.54191984529939</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>4.492686363854161</v>
+        <v>3.775815705518889</v>
       </c>
       <c r="I11">
-        <v>4.026397823387395</v>
+        <v>3.722108202015785</v>
+      </c>
+      <c r="J11">
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.5045184599554</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.046490227149508</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.33568387309926</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.35564569259995</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10.67303383675447</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.10346184430302</v>
+        <v>18.28200469801562</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -897,46 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.46003994495555</v>
+        <v>16.03604160826671</v>
       </c>
       <c r="C12">
-        <v>23.97306138816726</v>
+        <v>8.702556389532006</v>
       </c>
       <c r="D12">
-        <v>5.611338372245933</v>
+        <v>5.286612884295645</v>
       </c>
       <c r="E12">
-        <v>22.49534382238961</v>
+        <v>6.969594885553615</v>
       </c>
       <c r="F12">
-        <v>18.18018490245333</v>
+        <v>23.57787469441139</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>5.301114636066927</v>
+        <v>4.88669651886272</v>
       </c>
       <c r="I12">
-        <v>4.036352383828929</v>
+        <v>3.710273992870889</v>
+      </c>
+      <c r="J12">
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.96263403504058</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.056712772415045</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.56810398284468</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.982045659979262</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>10.42960571119377</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.03009914932889</v>
+        <v>17.66219964572736</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -944,46 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.36001126536393</v>
+        <v>15.97355858783464</v>
       </c>
       <c r="C13">
-        <v>23.87246084525962</v>
+        <v>8.893343664654447</v>
       </c>
       <c r="D13">
-        <v>5.875420566203079</v>
+        <v>5.080119672738717</v>
       </c>
       <c r="E13">
-        <v>16.57826779130319</v>
+        <v>6.763843733871646</v>
       </c>
       <c r="F13">
-        <v>16.81684718730127</v>
+        <v>22.64980208793832</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>6.321874535282032</v>
+        <v>6.154989831156969</v>
       </c>
       <c r="I13">
-        <v>3.990327379479631</v>
+        <v>3.741388769410038</v>
+      </c>
+      <c r="J13">
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.51382657442097</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.107478106046078</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.61904682156461</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.62617721591972</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>10.09291275195208</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.94702447354848</v>
+        <v>17.10434068037842</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -991,46 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.07990833678944</v>
+        <v>15.82129687118618</v>
       </c>
       <c r="C14">
-        <v>23.66791434137551</v>
+        <v>8.997359905467221</v>
       </c>
       <c r="D14">
-        <v>6.037018980021518</v>
+        <v>4.915853825694412</v>
       </c>
       <c r="E14">
-        <v>12.51407151035088</v>
+        <v>6.67735761894312</v>
       </c>
       <c r="F14">
-        <v>15.77948081056859</v>
+        <v>22.01637654197448</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>7.120997004698546</v>
+        <v>7.092128591422657</v>
       </c>
       <c r="I14">
-        <v>3.934376082290615</v>
+        <v>3.784972165313909</v>
+      </c>
+      <c r="J14">
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.24513493959228</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.166968342291035</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.57457809761914</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.392935300455621</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>9.812138910586409</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.17789104184732</v>
+        <v>16.74293878483909</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1038,46 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.91110089188882</v>
+        <v>15.73113612995534</v>
       </c>
       <c r="C15">
-        <v>23.56401353955093</v>
+        <v>9.01016961847386</v>
       </c>
       <c r="D15">
-        <v>6.065376218933928</v>
+        <v>4.868170985620058</v>
       </c>
       <c r="E15">
-        <v>11.53784735484873</v>
+        <v>6.663040175553276</v>
       </c>
       <c r="F15">
-        <v>15.48355151738994</v>
+        <v>21.86269316126042</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>7.304739452644291</v>
+        <v>7.315353441610852</v>
       </c>
       <c r="I15">
-        <v>3.908720832596522</v>
+        <v>3.808858431369081</v>
+      </c>
+      <c r="J15">
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.19275721007118</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.182465711703395</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.52600002048779</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.338649659207335</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>9.724516529331799</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.97941070898476</v>
+        <v>16.66263627113459</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1085,46 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.93972865017516</v>
+        <v>15.23726144946548</v>
       </c>
       <c r="C16">
-        <v>22.89778659810451</v>
+        <v>8.815647274679593</v>
       </c>
       <c r="D16">
-        <v>5.91695598565147</v>
+        <v>4.793500840214279</v>
       </c>
       <c r="E16">
-        <v>11.40079220748174</v>
+        <v>6.651939229967577</v>
       </c>
       <c r="F16">
-        <v>15.26308924785205</v>
+        <v>21.94773023862912</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>7.023652367670555</v>
+        <v>7.153865862722808</v>
       </c>
       <c r="I16">
-        <v>3.780498500792048</v>
+        <v>3.909196221010635</v>
+      </c>
+      <c r="J16">
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.3463873271953</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.150244018900806</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.14301058638223</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.335157724174773</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>9.55194412580542</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.00000258495085</v>
+        <v>16.78600903912118</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1132,46 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.33335524780634</v>
+        <v>14.93434213054631</v>
       </c>
       <c r="C17">
-        <v>22.49134673905846</v>
+        <v>8.606640345555975</v>
       </c>
       <c r="D17">
-        <v>5.712032904846049</v>
+        <v>4.825893530288488</v>
       </c>
       <c r="E17">
-        <v>13.49393089274596</v>
+        <v>6.679598611408884</v>
       </c>
       <c r="F17">
-        <v>15.66491031130633</v>
+        <v>22.34691829218641</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>6.331781949282495</v>
+        <v>6.508207932883679</v>
       </c>
       <c r="I17">
-        <v>3.711235346739993</v>
+        <v>3.963674641184693</v>
+      </c>
+      <c r="J17">
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.60193305889215</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.089862617220501</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.86775721333897</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.453632250488045</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>9.572547005463413</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.42603845118459</v>
+        <v>17.06941907663512</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1179,46 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.98815594547917</v>
+        <v>14.77402591999843</v>
       </c>
       <c r="C18">
-        <v>22.23687993014695</v>
+        <v>8.354793030296255</v>
       </c>
       <c r="D18">
-        <v>5.433055525278049</v>
+        <v>4.951423272112622</v>
       </c>
       <c r="E18">
-        <v>18.04966754262918</v>
+        <v>6.799229061670211</v>
       </c>
       <c r="F18">
-        <v>16.67421346875417</v>
+        <v>23.0889322083519</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>5.295175949569644</v>
+        <v>5.430593762480435</v>
       </c>
       <c r="I18">
-        <v>3.686294538833137</v>
+        <v>3.974490215775643</v>
+      </c>
+      <c r="J18">
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.00137127391113</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.024701977646707</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.65638263207773</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.706635764185116</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>9.760340494605801</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.27652785648718</v>
+        <v>17.54355123560419</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1226,46 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.88555310593026</v>
+        <v>14.73308741926411</v>
       </c>
       <c r="C19">
-        <v>22.21234335816534</v>
+        <v>8.129671130030191</v>
       </c>
       <c r="D19">
-        <v>5.137946159416773</v>
+        <v>5.146536596951663</v>
       </c>
       <c r="E19">
-        <v>24.32584718494821</v>
+        <v>7.057007390006505</v>
       </c>
       <c r="F19">
-        <v>18.01095879176808</v>
+        <v>24.02651752432506</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>4.315711853095834</v>
+        <v>4.250762681927696</v>
       </c>
       <c r="I19">
-        <v>3.710300522297746</v>
+        <v>3.962812944478</v>
+      </c>
+      <c r="J19">
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.48363299893108</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.000507586596223</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.52405476893005</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.0782916289296</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>10.06676110696505</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.35529296422902</v>
+        <v>18.12065743503108</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1273,46 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.47103432876578</v>
+        <v>15.04711345738298</v>
       </c>
       <c r="C20">
-        <v>22.68727170978404</v>
+        <v>7.937281989874642</v>
       </c>
       <c r="D20">
-        <v>4.790412143687933</v>
+        <v>5.512966123779141</v>
       </c>
       <c r="E20">
-        <v>34.47749105733784</v>
+        <v>7.653546128937235</v>
       </c>
       <c r="F20">
-        <v>20.30784993647318</v>
+        <v>25.54301271899249</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>4.023774908018307</v>
+        <v>3.200786115222866</v>
       </c>
       <c r="I20">
-        <v>3.859958237290177</v>
+        <v>3.860899671457827</v>
+      </c>
+      <c r="J20">
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.22239091211992</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.080360433317381</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.60898223546369</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.736349824839048</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>10.68046228893921</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.12155973123076</v>
+        <v>19.01504125974067</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1320,46 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.24823133926937</v>
+        <v>15.95054260398934</v>
       </c>
       <c r="C21">
-        <v>23.94496119903691</v>
+        <v>8.199413697918766</v>
       </c>
       <c r="D21">
-        <v>4.926019927894772</v>
+        <v>5.749112254639786</v>
       </c>
       <c r="E21">
-        <v>37.30559408676149</v>
+        <v>7.832581144658814</v>
       </c>
       <c r="F21">
-        <v>21.34808689034557</v>
+        <v>25.93631485467559</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>4.378860539700025</v>
+        <v>2.950837243936141</v>
       </c>
       <c r="I21">
-        <v>4.119120617262744</v>
+        <v>3.671943356869769</v>
+      </c>
+      <c r="J21">
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.23565238346877</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.128313320735635</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.26943927400087</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.954300227129065</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.15090621108229</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.68174502682728</v>
+        <v>19.13634285271894</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1367,46 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.35835999905605</v>
+        <v>16.51871463373844</v>
       </c>
       <c r="C22">
-        <v>24.68646706035022</v>
+        <v>8.363646360925232</v>
       </c>
       <c r="D22">
-        <v>5.022453335923683</v>
+        <v>5.882207233338763</v>
       </c>
       <c r="E22">
-        <v>38.645784568976</v>
+        <v>7.919815824803732</v>
       </c>
       <c r="F22">
-        <v>21.97536135577538</v>
+        <v>26.15971049381766</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>4.5880490719886</v>
+        <v>2.801299046818165</v>
       </c>
       <c r="I22">
-        <v>4.280603779598847</v>
+        <v>3.543744850856595</v>
+      </c>
+      <c r="J22">
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.23301881094863</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.154189038913568</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.6850267752882</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.060235348531485</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.42619478157142</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.01548221594701</v>
+        <v>19.20064772894596</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1414,46 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.7709066848655</v>
+        <v>16.22389245840881</v>
       </c>
       <c r="C23">
-        <v>24.24709859273765</v>
+        <v>8.260830049214222</v>
       </c>
       <c r="D23">
-        <v>4.963622951361446</v>
+        <v>5.807977917235991</v>
       </c>
       <c r="E23">
-        <v>37.93605119404339</v>
+        <v>7.876342007493728</v>
       </c>
       <c r="F23">
-        <v>21.68523465542879</v>
+        <v>26.06923895825595</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>4.477121239092268</v>
+        <v>2.879881404014507</v>
       </c>
       <c r="I23">
-        <v>4.192357459237603</v>
+        <v>3.602020579102235</v>
+      </c>
+      <c r="J23">
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.25580204016098</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.141834564543773</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.46044500199159</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.999437418612978</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.27875051119036</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.87452321876289</v>
+        <v>19.18740743772729</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1461,46 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.44524700556518</v>
+        <v>15.04450127172835</v>
       </c>
       <c r="C24">
-        <v>22.59821958381127</v>
+        <v>7.888628946396816</v>
       </c>
       <c r="D24">
-        <v>4.747015846311729</v>
+        <v>5.525810135875967</v>
       </c>
       <c r="E24">
-        <v>35.13865545386768</v>
+        <v>7.704179294639564</v>
       </c>
       <c r="F24">
-        <v>20.51479855174997</v>
+        <v>25.69281831667354</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>4.049291792696274</v>
+        <v>3.18553380813438</v>
       </c>
       <c r="I24">
-        <v>3.857953781632018</v>
+        <v>3.844884872709858</v>
+      </c>
+      <c r="J24">
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.31560323218736</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.091476815855118</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.58205107296206</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.773254552273772</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>10.70618082721889</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.29740027146494</v>
+        <v>19.11510112979267</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1508,46 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.72027819732691</v>
+        <v>13.65749826468535</v>
       </c>
       <c r="C25">
-        <v>20.69398490198719</v>
+        <v>7.470621338303567</v>
       </c>
       <c r="D25">
-        <v>4.500641749950556</v>
+        <v>5.208359553866967</v>
       </c>
       <c r="E25">
-        <v>31.88598415281427</v>
+        <v>7.512883228944984</v>
       </c>
       <c r="F25">
-        <v>19.25577469052761</v>
+        <v>25.31678061989039</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3.57136126208584</v>
+        <v>3.52978163364371</v>
       </c>
       <c r="I25">
-        <v>3.489440049676813</v>
+        <v>4.120484610601053</v>
+      </c>
+      <c r="J25">
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.39886901950338</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.034249570682294</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.56061840499813</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.523570243998527</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.05615449854039</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.71302920921626</v>
+        <v>19.06412776056488</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.55417378794944</v>
+        <v>12.54166609783443</v>
       </c>
       <c r="C2">
-        <v>7.107745258394053</v>
+        <v>6.922753885697356</v>
       </c>
       <c r="D2">
-        <v>4.954949426048415</v>
+        <v>5.087195152622574</v>
       </c>
       <c r="E2">
-        <v>7.375301174842367</v>
+        <v>7.330864160758245</v>
       </c>
       <c r="F2">
-        <v>25.14060664150661</v>
+        <v>24.1659114103737</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.793716826257285</v>
+        <v>3.599593368755241</v>
       </c>
       <c r="I2">
-        <v>4.313184277558927</v>
+        <v>4.062470630490518</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>18.52929954462233</v>
+        <v>17.58122969742621</v>
       </c>
       <c r="L2">
-        <v>5.993327751206099</v>
+        <v>13.56865813515976</v>
       </c>
       <c r="M2">
-        <v>10.73305992979829</v>
+        <v>12.4023541049</v>
       </c>
       <c r="N2">
-        <v>6.324085418560286</v>
+        <v>5.927556911591756</v>
       </c>
       <c r="O2">
-        <v>9.548466807529088</v>
+        <v>10.87400378402286</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.588601083248939</v>
       </c>
       <c r="Q2">
-        <v>19.10271711392604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.551326639767677</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>18.31237264037454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.73387998237361</v>
+        <v>11.74692854137322</v>
       </c>
       <c r="C3">
-        <v>6.876544480545292</v>
+        <v>6.60390015444542</v>
       </c>
       <c r="D3">
-        <v>4.783273884031394</v>
+        <v>4.908665810719393</v>
       </c>
       <c r="E3">
-        <v>7.274908603713707</v>
+        <v>7.240073852529898</v>
       </c>
       <c r="F3">
-        <v>24.99396959955318</v>
+        <v>24.08487056693853</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.982551020108033</v>
+        <v>3.777451027303386</v>
       </c>
       <c r="I3">
-        <v>4.463523741918014</v>
+        <v>4.198230448439257</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>18.59558688050084</v>
+        <v>17.68761529767682</v>
       </c>
       <c r="L3">
-        <v>5.96178347372646</v>
+        <v>13.70669917042636</v>
       </c>
       <c r="M3">
-        <v>10.14041427821327</v>
+        <v>12.46418184504562</v>
       </c>
       <c r="N3">
-        <v>6.193385441098139</v>
+        <v>5.898482763470142</v>
       </c>
       <c r="O3">
-        <v>9.19223243323809</v>
+        <v>10.2694570935468</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.454907556189085</v>
       </c>
       <c r="Q3">
-        <v>19.11055675299681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.187204403903481</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>18.36630585715841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.19863523783709</v>
+        <v>11.22869735508893</v>
       </c>
       <c r="C4">
-        <v>6.731347330218459</v>
+        <v>6.402935757959101</v>
       </c>
       <c r="D4">
-        <v>4.675760252695765</v>
+        <v>4.796963442398805</v>
       </c>
       <c r="E4">
-        <v>7.211811077695258</v>
+        <v>7.182965594183148</v>
       </c>
       <c r="F4">
-        <v>24.91009986908023</v>
+        <v>24.04057605368937</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.102838123712686</v>
+        <v>3.890772267366539</v>
       </c>
       <c r="I4">
-        <v>4.559896694139598</v>
+        <v>4.285502030033241</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>18.63952607937159</v>
+        <v>17.75533166847866</v>
       </c>
       <c r="L4">
-        <v>5.941488826190406</v>
+        <v>13.79239838879139</v>
       </c>
       <c r="M4">
-        <v>9.758049892784443</v>
+        <v>12.51675262237573</v>
       </c>
       <c r="N4">
-        <v>6.112529093527351</v>
+        <v>5.879762544720156</v>
       </c>
       <c r="O4">
-        <v>8.96723759143487</v>
+        <v>9.879526260237435</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.372552528235811</v>
       </c>
       <c r="Q4">
-        <v>19.12042970713275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.956947670296648</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>18.40375953266895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.97655228318597</v>
+        <v>11.00782259687503</v>
       </c>
       <c r="C5">
-        <v>6.675846332497862</v>
+        <v>6.325156614051481</v>
       </c>
       <c r="D5">
-        <v>4.632572711992714</v>
+        <v>4.752038101002782</v>
       </c>
       <c r="E5">
-        <v>7.184872934079014</v>
+        <v>7.15853078962696</v>
       </c>
       <c r="F5">
-        <v>24.86940736779328</v>
+        <v>24.01615587221426</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.153275638880205</v>
+        <v>3.938305108642394</v>
       </c>
       <c r="I5">
-        <v>4.602501158099312</v>
+        <v>4.324745359545655</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>18.65250306892706</v>
+        <v>17.77816885003559</v>
       </c>
       <c r="L5">
-        <v>5.932546698074443</v>
+        <v>13.82227737989707</v>
       </c>
       <c r="M5">
-        <v>9.599097954492974</v>
+        <v>12.5389716875394</v>
       </c>
       <c r="N5">
-        <v>6.080711387048089</v>
+        <v>5.871517688304525</v>
       </c>
       <c r="O5">
-        <v>8.874523884662183</v>
+        <v>9.717391500792008</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.340153793004409</v>
       </c>
       <c r="Q5">
-        <v>19.11992186391201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.861974794861025</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>18.41459484092886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.93716052176938</v>
+        <v>10.96814855923062</v>
       </c>
       <c r="C6">
-        <v>6.672065265874346</v>
+        <v>6.318746759618091</v>
       </c>
       <c r="D6">
-        <v>4.62671849511989</v>
+        <v>4.745844547617127</v>
       </c>
       <c r="E6">
-        <v>7.179317592399487</v>
+        <v>7.153442993481971</v>
       </c>
       <c r="F6">
-        <v>24.85288976684437</v>
+        <v>24.00274465839924</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.16210121534563</v>
+        <v>3.946635094363964</v>
       </c>
       <c r="I6">
-        <v>4.612569941680051</v>
+        <v>4.334761808118811</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>18.64770688090177</v>
+        <v>17.77546354586755</v>
       </c>
       <c r="L6">
-        <v>5.930514772000388</v>
+        <v>13.82080809103475</v>
       </c>
       <c r="M6">
-        <v>9.574196448054119</v>
+        <v>12.53940416176636</v>
       </c>
       <c r="N6">
-        <v>6.076961067319625</v>
+        <v>5.869653210244772</v>
       </c>
       <c r="O6">
-        <v>8.859577087866565</v>
+        <v>9.691904263562346</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.336239649516837</v>
       </c>
       <c r="Q6">
-        <v>19.11285174996479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.846631442600165</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>18.40975077826163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.18858667659944</v>
+        <v>11.2189826396853</v>
       </c>
       <c r="C7">
-        <v>6.745448520504195</v>
+        <v>6.419698939089209</v>
       </c>
       <c r="D7">
-        <v>4.678803567848899</v>
+        <v>4.799845782867227</v>
       </c>
       <c r="E7">
-        <v>7.208578845651652</v>
+        <v>7.179906699280581</v>
       </c>
       <c r="F7">
-        <v>24.88274060500341</v>
+        <v>24.0146026727141</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.104541044130533</v>
+        <v>3.89240904383835</v>
       </c>
       <c r="I7">
-        <v>4.56821784834304</v>
+        <v>4.295109803144848</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>18.62062320953746</v>
+        <v>17.73788755964073</v>
       </c>
       <c r="L7">
-        <v>5.939934731007279</v>
+        <v>13.77566672499613</v>
       </c>
       <c r="M7">
-        <v>9.760667963348348</v>
+        <v>12.50718879390834</v>
       </c>
       <c r="N7">
-        <v>6.116275844712284</v>
+        <v>5.87836056980397</v>
       </c>
       <c r="O7">
-        <v>8.967421142237377</v>
+        <v>9.881958318996869</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.376099175423684</v>
       </c>
       <c r="Q7">
-        <v>19.10118779169014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.957059453659252</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>18.38566710730332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.26932579603854</v>
+        <v>12.26564830727466</v>
       </c>
       <c r="C8">
-        <v>7.047842521217975</v>
+        <v>6.836765479083549</v>
       </c>
       <c r="D8">
-        <v>4.900811965224364</v>
+        <v>5.030526795599199</v>
       </c>
       <c r="E8">
-        <v>7.337315597640674</v>
+        <v>7.29635807387835</v>
       </c>
       <c r="F8">
-        <v>25.05382367452751</v>
+        <v>24.10351691826051</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.859207679878188</v>
+        <v>3.661306627098988</v>
       </c>
       <c r="I8">
-        <v>4.373953509657684</v>
+        <v>4.119936899137244</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>18.52644433553998</v>
+        <v>17.59433490721064</v>
       </c>
       <c r="L8">
-        <v>5.980834289606944</v>
+        <v>13.59535188254216</v>
       </c>
       <c r="M8">
-        <v>10.53850665756945</v>
+        <v>12.40614946940696</v>
       </c>
       <c r="N8">
-        <v>6.284554585893996</v>
+        <v>5.916107820407273</v>
       </c>
       <c r="O8">
-        <v>9.42877055375083</v>
+        <v>10.67523582918505</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.547744784646345</v>
       </c>
       <c r="Q8">
-        <v>19.07916430862167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.428944916278748</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>18.3062871649718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.1503979539784</v>
+        <v>14.08941971222417</v>
       </c>
       <c r="C9">
-        <v>7.588820660330501</v>
+        <v>7.580815692129163</v>
       </c>
       <c r="D9">
-        <v>5.311171817954766</v>
+        <v>5.458007970810598</v>
       </c>
       <c r="E9">
-        <v>7.582780760298931</v>
+        <v>7.518305025047341</v>
       </c>
       <c r="F9">
-        <v>25.48553143729028</v>
+        <v>24.36712393094633</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.410260842059372</v>
+        <v>3.238585593439625</v>
       </c>
       <c r="I9">
-        <v>4.012174383039591</v>
+        <v>3.792332305027416</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>18.40188977867361</v>
+        <v>17.36336521502511</v>
       </c>
       <c r="L9">
-        <v>6.056196896649164</v>
+        <v>13.27610627822504</v>
       </c>
       <c r="M9">
-        <v>11.90724297847367</v>
+        <v>12.34561417816802</v>
       </c>
       <c r="N9">
-        <v>6.601362365684847</v>
+        <v>5.98547573011286</v>
       </c>
       <c r="O9">
-        <v>10.27709685807912</v>
+        <v>12.07204866145094</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.873955535646352</v>
       </c>
       <c r="Q9">
-        <v>19.11136961751946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.2945898750307</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>18.21848843618992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.37589204112835</v>
+        <v>15.28084201195322</v>
       </c>
       <c r="C10">
-        <v>8.000628033423405</v>
+        <v>8.129006855428591</v>
       </c>
       <c r="D10">
-        <v>5.57219997998118</v>
+        <v>5.729551430433101</v>
       </c>
       <c r="E10">
-        <v>7.692686691058285</v>
+        <v>7.614503509275225</v>
       </c>
       <c r="F10">
-        <v>25.68135194812274</v>
+        <v>24.45362530275749</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.124414113841304</v>
+        <v>2.970954347508818</v>
       </c>
       <c r="I10">
-        <v>3.774334580297831</v>
+        <v>3.57938108651299</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>18.24243910750795</v>
+        <v>17.13593940265336</v>
       </c>
       <c r="L10">
-        <v>6.094458408414714</v>
+        <v>12.99313407197858</v>
       </c>
       <c r="M10">
-        <v>12.83304867705525</v>
+        <v>12.31914674688466</v>
       </c>
       <c r="N10">
-        <v>6.771629503265272</v>
+        <v>6.022491176807471</v>
       </c>
       <c r="O10">
-        <v>10.81856453860499</v>
+        <v>13.01472133560049</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.050155535010457</v>
       </c>
       <c r="Q10">
-        <v>19.06648657162475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.84579199259578</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>18.09486922684591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.86384845949349</v>
+        <v>15.77675486048163</v>
       </c>
       <c r="C11">
-        <v>8.430239842875332</v>
+        <v>8.594934722382384</v>
       </c>
       <c r="D11">
-        <v>5.451174545603521</v>
+        <v>5.598901877966362</v>
       </c>
       <c r="E11">
-        <v>7.264448956287217</v>
+        <v>7.205607789921189</v>
       </c>
       <c r="F11">
-        <v>24.54191984529939</v>
+        <v>23.39699496513633</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.775815705518889</v>
+        <v>3.653722328460871</v>
       </c>
       <c r="I11">
-        <v>3.722108202015785</v>
+        <v>3.536689423270277</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>17.5045184599554</v>
+        <v>16.4872161247303</v>
       </c>
       <c r="L11">
-        <v>6.046490227149508</v>
+        <v>12.4748172428084</v>
       </c>
       <c r="M11">
-        <v>13.33568387309926</v>
+        <v>11.87950976449463</v>
       </c>
       <c r="N11">
-        <v>6.35564569259995</v>
+        <v>5.997278408126085</v>
       </c>
       <c r="O11">
-        <v>10.67303383675447</v>
+        <v>13.50837070881999</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.617482639295099</v>
       </c>
       <c r="Q11">
-        <v>18.28200469801562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.69742787310537</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>17.37852313706279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.03604160826671</v>
+        <v>15.96250745755334</v>
       </c>
       <c r="C12">
-        <v>8.702556389532006</v>
+        <v>8.859133783386715</v>
       </c>
       <c r="D12">
-        <v>5.286612884295645</v>
+        <v>5.424094154399444</v>
       </c>
       <c r="E12">
-        <v>6.969594885553615</v>
+        <v>6.929621103786153</v>
       </c>
       <c r="F12">
-        <v>23.57787469441139</v>
+        <v>22.52390167550992</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.88669651886272</v>
+        <v>4.792508933588293</v>
       </c>
       <c r="I12">
-        <v>3.710273992870889</v>
+        <v>3.525525378057156</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>16.96263403504058</v>
+        <v>16.03095029945928</v>
       </c>
       <c r="L12">
-        <v>6.056712772415045</v>
+        <v>12.1420423392226</v>
       </c>
       <c r="M12">
-        <v>13.56810398284468</v>
+        <v>11.53245559299658</v>
       </c>
       <c r="N12">
-        <v>5.982045659979262</v>
+        <v>6.024536430813407</v>
       </c>
       <c r="O12">
-        <v>10.42960571119377</v>
+        <v>13.72941286588082</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.228284775584456</v>
       </c>
       <c r="Q12">
-        <v>17.66219964572736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.44975611117173</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>16.83069976733128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97355858783464</v>
+        <v>15.91931024449318</v>
       </c>
       <c r="C13">
-        <v>8.893343664654447</v>
+        <v>9.012368639359208</v>
       </c>
       <c r="D13">
-        <v>5.080119672738717</v>
+        <v>5.205973755037182</v>
       </c>
       <c r="E13">
-        <v>6.763843733871646</v>
+        <v>6.742512992717567</v>
       </c>
       <c r="F13">
-        <v>22.64980208793832</v>
+        <v>21.7002064062489</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.154989831156969</v>
+        <v>6.077817149325604</v>
       </c>
       <c r="I13">
-        <v>3.741388769410038</v>
+        <v>3.552829163310466</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>16.51382657442097</v>
+        <v>15.67070094171057</v>
       </c>
       <c r="L13">
-        <v>6.107478106046078</v>
+        <v>11.89896433345919</v>
       </c>
       <c r="M13">
-        <v>13.61904682156461</v>
+        <v>11.22519818715829</v>
       </c>
       <c r="N13">
-        <v>5.62617721591972</v>
+        <v>6.088217084239814</v>
       </c>
       <c r="O13">
-        <v>10.09291275195208</v>
+        <v>13.76599132220771</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.857020856917787</v>
       </c>
       <c r="Q13">
-        <v>17.10434068037842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.10722657028025</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>16.35314245637084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.82129687118618</v>
+        <v>15.78345619775217</v>
       </c>
       <c r="C14">
-        <v>8.997359905467221</v>
+        <v>9.076574052094401</v>
       </c>
       <c r="D14">
-        <v>4.915853825694412</v>
+        <v>5.032899240878741</v>
       </c>
       <c r="E14">
-        <v>6.67735761894312</v>
+        <v>6.668019718917849</v>
       </c>
       <c r="F14">
-        <v>22.01637654197448</v>
+        <v>21.14511702541875</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.092128591422657</v>
+        <v>7.022752903269251</v>
       </c>
       <c r="I14">
-        <v>3.784972165313909</v>
+        <v>3.592236564358902</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>16.24513493959228</v>
+        <v>15.4635732260004</v>
       </c>
       <c r="L14">
-        <v>6.166968342291035</v>
+        <v>11.7646868264261</v>
       </c>
       <c r="M14">
-        <v>13.57457809761914</v>
+        <v>11.03465722623932</v>
       </c>
       <c r="N14">
-        <v>5.392935300455621</v>
+        <v>6.154170753750368</v>
       </c>
       <c r="O14">
-        <v>9.812138910586409</v>
+        <v>13.7098455891986</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.613486032882395</v>
       </c>
       <c r="Q14">
-        <v>16.74293878483909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.8215055083834</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>16.05075725658716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.73113612995534</v>
+        <v>15.69863563383104</v>
       </c>
       <c r="C15">
-        <v>9.01016961847386</v>
+        <v>9.074709613349667</v>
       </c>
       <c r="D15">
-        <v>4.868170985620058</v>
+        <v>4.982748604631293</v>
       </c>
       <c r="E15">
-        <v>6.663040175553276</v>
+        <v>6.656502413377739</v>
       </c>
       <c r="F15">
-        <v>21.86269316126042</v>
+        <v>21.01349431013817</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.315353441610852</v>
+        <v>7.246963764284257</v>
       </c>
       <c r="I15">
-        <v>3.808858431369081</v>
+        <v>3.614787358697664</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>16.19275721007118</v>
+        <v>15.4270869279478</v>
       </c>
       <c r="L15">
-        <v>6.182465711703395</v>
+        <v>11.74231858992932</v>
       </c>
       <c r="M15">
-        <v>13.52600002048779</v>
+        <v>10.99548867639468</v>
       </c>
       <c r="N15">
-        <v>5.338649659207335</v>
+        <v>6.170641284334608</v>
       </c>
       <c r="O15">
-        <v>9.724516529331799</v>
+        <v>13.65774513790577</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.556915311758654</v>
       </c>
       <c r="Q15">
-        <v>16.66263627113459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.732277994040865</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>15.98672327897912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.23726144946548</v>
+        <v>15.2162241029605</v>
       </c>
       <c r="C16">
-        <v>8.815647274679593</v>
+        <v>8.833769116261578</v>
       </c>
       <c r="D16">
-        <v>4.793500840214279</v>
+        <v>4.905638358100885</v>
       </c>
       <c r="E16">
-        <v>6.651939229967577</v>
+        <v>6.646021741351031</v>
       </c>
       <c r="F16">
-        <v>21.94773023862912</v>
+        <v>21.12326318942022</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.153865862722808</v>
+        <v>7.07796959621981</v>
       </c>
       <c r="I16">
-        <v>3.909196221010635</v>
+        <v>3.706119786880772</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>16.3463873271953</v>
+        <v>15.58746175766313</v>
       </c>
       <c r="L16">
-        <v>6.150244018900806</v>
+        <v>11.86226091763741</v>
       </c>
       <c r="M16">
-        <v>13.14301058638223</v>
+        <v>11.08844168776043</v>
       </c>
       <c r="N16">
-        <v>5.335157724174773</v>
+        <v>6.134760431050728</v>
       </c>
       <c r="O16">
-        <v>9.55194412580542</v>
+        <v>13.26957185922547</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.555512515943064</v>
       </c>
       <c r="Q16">
-        <v>16.78600903912118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.556245850777611</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>16.12570893968556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.93434213054631</v>
+        <v>14.91313303614445</v>
       </c>
       <c r="C17">
-        <v>8.606640345555975</v>
+        <v>8.610605922223721</v>
       </c>
       <c r="D17">
-        <v>4.825893530288488</v>
+        <v>4.940888779122248</v>
       </c>
       <c r="E17">
-        <v>6.679598611408884</v>
+        <v>6.668531170275649</v>
       </c>
       <c r="F17">
-        <v>22.34691829218641</v>
+        <v>21.50072104228917</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.508207932883679</v>
+        <v>6.421033908880452</v>
       </c>
       <c r="I17">
-        <v>3.963674641184693</v>
+        <v>3.755985234728792</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>16.60193305889215</v>
+        <v>15.8175203909972</v>
       </c>
       <c r="L17">
-        <v>6.089862617220501</v>
+        <v>12.033554672168</v>
       </c>
       <c r="M17">
-        <v>12.86775721333897</v>
+        <v>11.25230042535096</v>
       </c>
       <c r="N17">
-        <v>5.453632250488045</v>
+        <v>6.068733720177759</v>
       </c>
       <c r="O17">
-        <v>9.572547005463413</v>
+        <v>12.9968263513349</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.68054858181786</v>
       </c>
       <c r="Q17">
-        <v>17.06941907663512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.576945427867184</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>16.39081546418201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.77402591999843</v>
+        <v>14.74225702110223</v>
       </c>
       <c r="C18">
-        <v>8.354793030296255</v>
+        <v>8.36731525232263</v>
       </c>
       <c r="D18">
-        <v>4.951423272112622</v>
+        <v>5.074294213235627</v>
       </c>
       <c r="E18">
-        <v>6.799229061670211</v>
+        <v>6.77619808293795</v>
       </c>
       <c r="F18">
-        <v>23.0889322083519</v>
+        <v>22.17661167280961</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.430593762480435</v>
+        <v>5.324752015816069</v>
       </c>
       <c r="I18">
-        <v>3.974490215775643</v>
+        <v>3.764092909419833</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>17.00137127391113</v>
+        <v>16.157703237604</v>
       </c>
       <c r="L18">
-        <v>6.024701977646707</v>
+        <v>12.29250693287786</v>
       </c>
       <c r="M18">
-        <v>12.65638263207773</v>
+        <v>11.50479954865387</v>
       </c>
       <c r="N18">
-        <v>5.706635764185116</v>
+        <v>5.994053942838102</v>
       </c>
       <c r="O18">
-        <v>9.760340494605801</v>
+        <v>12.79489903183384</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.944736786115179</v>
       </c>
       <c r="Q18">
-        <v>17.54355123560419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.768085943035508</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>16.81355812859354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.73308741926411</v>
+        <v>14.68371035964825</v>
       </c>
       <c r="C19">
-        <v>8.129671130030191</v>
+        <v>8.166581814353242</v>
       </c>
       <c r="D19">
-        <v>5.146536596951663</v>
+        <v>5.280597576301203</v>
       </c>
       <c r="E19">
-        <v>7.057007390006505</v>
+        <v>7.016065071525851</v>
       </c>
       <c r="F19">
-        <v>24.02651752432506</v>
+        <v>23.01689692324139</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.250762681927696</v>
+        <v>4.117884483459265</v>
       </c>
       <c r="I19">
-        <v>3.962812944478</v>
+        <v>3.754987412948364</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>17.48363299893108</v>
+        <v>16.55642501079784</v>
       </c>
       <c r="L19">
-        <v>6.000507586596223</v>
+        <v>12.59915721744415</v>
       </c>
       <c r="M19">
-        <v>12.52405476893005</v>
+        <v>11.80451073802831</v>
       </c>
       <c r="N19">
-        <v>6.0782916289296</v>
+        <v>5.955850926124802</v>
       </c>
       <c r="O19">
-        <v>10.06676110696505</v>
+        <v>12.6762630939017</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.330741190854789</v>
       </c>
       <c r="Q19">
-        <v>18.12065743503108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.08011788194604</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>17.31584619309316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.04711345738298</v>
+        <v>14.96136960249047</v>
       </c>
       <c r="C20">
-        <v>7.937281989874642</v>
+        <v>8.037732530721783</v>
       </c>
       <c r="D20">
-        <v>5.512966123779141</v>
+        <v>5.66718329465105</v>
       </c>
       <c r="E20">
-        <v>7.653546128937235</v>
+        <v>7.579484078397174</v>
       </c>
       <c r="F20">
-        <v>25.54301271899249</v>
+        <v>24.34871935375256</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.200786115222866</v>
+        <v>3.042431606943007</v>
       </c>
       <c r="I20">
-        <v>3.860899671457827</v>
+        <v>3.664254435890193</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>18.22239091211992</v>
+        <v>17.13996122336412</v>
       </c>
       <c r="L20">
-        <v>6.080360433317381</v>
+        <v>13.02509476519121</v>
       </c>
       <c r="M20">
-        <v>12.60898223546369</v>
+        <v>12.27964214959639</v>
       </c>
       <c r="N20">
-        <v>6.736349824839048</v>
+        <v>6.009336521638616</v>
       </c>
       <c r="O20">
-        <v>10.68046228893921</v>
+        <v>12.78594462926032</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.012763998621331</v>
       </c>
       <c r="Q20">
-        <v>19.01504125974067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.70511298167486</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>18.06844909279573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.95054260398934</v>
+        <v>15.83602206718042</v>
       </c>
       <c r="C21">
-        <v>8.199413697918766</v>
+        <v>8.401931449104499</v>
       </c>
       <c r="D21">
-        <v>5.749112254639786</v>
+        <v>5.913838687373715</v>
       </c>
       <c r="E21">
-        <v>7.832581144658814</v>
+        <v>7.743686706946752</v>
       </c>
       <c r="F21">
-        <v>25.93631485467559</v>
+        <v>24.63371663654328</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.950837243936141</v>
+        <v>2.806359114530443</v>
       </c>
       <c r="I21">
-        <v>3.671943356869769</v>
+        <v>3.494302454322261</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>18.23565238346877</v>
+        <v>17.07753519598013</v>
       </c>
       <c r="L21">
-        <v>6.128313320735635</v>
+        <v>12.89273516120337</v>
       </c>
       <c r="M21">
-        <v>13.26943927400087</v>
+        <v>12.36360267696778</v>
       </c>
       <c r="N21">
-        <v>6.954300227129065</v>
+        <v>6.052090918445315</v>
       </c>
       <c r="O21">
-        <v>11.15090621108229</v>
+        <v>13.46162796566493</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.239098289725939</v>
       </c>
       <c r="Q21">
-        <v>19.13634285271894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.18361266428829</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>18.10936957259561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.51871463373844</v>
+        <v>16.3873466645139</v>
       </c>
       <c r="C22">
-        <v>8.363646360925232</v>
+        <v>8.626648403965014</v>
       </c>
       <c r="D22">
-        <v>5.882207233338763</v>
+        <v>6.05294957149293</v>
       </c>
       <c r="E22">
-        <v>7.919815824803732</v>
+        <v>7.822642226919364</v>
       </c>
       <c r="F22">
-        <v>26.15971049381766</v>
+        <v>24.79250880239731</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.801299046818165</v>
+        <v>2.665717388622947</v>
       </c>
       <c r="I22">
-        <v>3.543744850856595</v>
+        <v>3.376145094749213</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>18.23301881094863</v>
+        <v>17.02917942404011</v>
       </c>
       <c r="L22">
-        <v>6.154189038913568</v>
+        <v>12.79765934840836</v>
       </c>
       <c r="M22">
-        <v>13.6850267752882</v>
+        <v>12.42532162467483</v>
       </c>
       <c r="N22">
-        <v>7.060235348531485</v>
+        <v>6.075777272569917</v>
       </c>
       <c r="O22">
-        <v>11.42619478157142</v>
+        <v>13.88591310302785</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.349719668243634</v>
       </c>
       <c r="Q22">
-        <v>19.20064772894596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.46338756272347</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>18.12522294089317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.22389245840881</v>
+        <v>16.10124355077788</v>
       </c>
       <c r="C23">
-        <v>8.260830049214222</v>
+        <v>8.489267619063741</v>
       </c>
       <c r="D23">
-        <v>5.807977917235991</v>
+        <v>5.975641940109266</v>
       </c>
       <c r="E23">
-        <v>7.876342007493728</v>
+        <v>7.783402100070143</v>
       </c>
       <c r="F23">
-        <v>26.06923895825595</v>
+        <v>24.7349898465962</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.879881404014507</v>
+        <v>2.739607919127424</v>
       </c>
       <c r="I23">
-        <v>3.602020579102235</v>
+        <v>3.427124572841671</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>18.25580204016098</v>
+        <v>17.07433090732869</v>
       </c>
       <c r="L23">
-        <v>6.141834564543773</v>
+        <v>12.8622555872</v>
       </c>
       <c r="M23">
-        <v>13.46044500199159</v>
+        <v>12.40700106228671</v>
       </c>
       <c r="N23">
-        <v>6.999437418612978</v>
+        <v>6.064369470777291</v>
       </c>
       <c r="O23">
-        <v>11.27875051119036</v>
+        <v>13.6568412658682</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.286547927698902</v>
       </c>
       <c r="Q23">
-        <v>19.18740743772729</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.31362952653379</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>18.13647597177599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.04450127172835</v>
+        <v>14.95684407086429</v>
       </c>
       <c r="C24">
-        <v>7.888628946396816</v>
+        <v>7.985052117425795</v>
       </c>
       <c r="D24">
-        <v>5.525810135875967</v>
+        <v>5.681356075698502</v>
       </c>
       <c r="E24">
-        <v>7.704179294639564</v>
+        <v>7.627824527307878</v>
       </c>
       <c r="F24">
-        <v>25.69281831667354</v>
+        <v>24.48593193585204</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.18553380813438</v>
+        <v>3.027126961555891</v>
       </c>
       <c r="I24">
-        <v>3.844884872709858</v>
+        <v>3.645359172466788</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>18.31560323218736</v>
+        <v>17.22045732534362</v>
       </c>
       <c r="L24">
-        <v>6.091476815855118</v>
+        <v>13.08748255959413</v>
       </c>
       <c r="M24">
-        <v>12.58205107296206</v>
+        <v>12.33947634819715</v>
       </c>
       <c r="N24">
-        <v>6.773254552273772</v>
+        <v>6.018058995605157</v>
       </c>
       <c r="O24">
-        <v>10.70618082721889</v>
+        <v>12.76042753240343</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.051491070268509</v>
       </c>
       <c r="Q24">
-        <v>19.11510112979267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.73141425850023</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>18.1582644625359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.65749826468535</v>
+        <v>13.61138642665128</v>
       </c>
       <c r="C25">
-        <v>7.470621338303567</v>
+        <v>7.414247048675038</v>
       </c>
       <c r="D25">
-        <v>5.208359553866967</v>
+        <v>5.350402034142705</v>
       </c>
       <c r="E25">
-        <v>7.512883228944984</v>
+        <v>7.454931489130661</v>
       </c>
       <c r="F25">
-        <v>25.31678061989039</v>
+        <v>24.2465522624033</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.52978163364371</v>
+        <v>3.35112961485489</v>
       </c>
       <c r="I25">
-        <v>4.120484610601053</v>
+        <v>3.894040535524555</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>18.39886901950338</v>
+        <v>17.39285099273569</v>
       </c>
       <c r="L25">
-        <v>6.034249570682294</v>
+        <v>13.33655268072451</v>
       </c>
       <c r="M25">
-        <v>11.56061840499813</v>
+        <v>12.32734277590473</v>
       </c>
       <c r="N25">
-        <v>6.523570243998527</v>
+        <v>5.965401472461846</v>
       </c>
       <c r="O25">
-        <v>10.05615449854039</v>
+        <v>11.71792800122175</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.79311156846457</v>
       </c>
       <c r="Q25">
-        <v>19.06412776056488</v>
+        <v>10.06926727221927</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>18.20635617379315</v>
       </c>
     </row>
   </sheetData>
